--- a/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EB503A-6ADE-46F9-8C70-09A7268C2241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0160F403-4F08-4358-B5BD-F72B9BCDE852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>ARC-186</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>121.25</t>
+  </si>
+  <si>
+    <t>267.25</t>
+  </si>
+  <si>
+    <t>Hatay Range</t>
+  </si>
+  <si>
+    <t>Hatay RWY 04/22</t>
   </si>
 </sst>
 </file>
@@ -467,8 +476,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,7 +823,7 @@
   <dimension ref="D2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,8 +1173,12 @@
       <c r="D27" s="39">
         <v>10</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="31"/>
+      <c r="E27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="G27" s="39">
         <v>10</v>
       </c>
@@ -1176,7 +1193,7 @@
       <c r="D29" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="1"/>
       <c r="H29" s="61" t="s">
@@ -1188,15 +1205,17 @@
       <c r="D30" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>

--- a/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0160F403-4F08-4358-B5BD-F72B9BCDE852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA745BCF-9561-4CF9-8999-FF7F9C23E9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Apache-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Colt 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Apache-1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Apache-1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Apache-1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Colt 1'!$D$3:$I$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>ARC-186</t>
   </si>
@@ -130,13 +132,82 @@
     <t>121.25</t>
   </si>
   <si>
-    <t>267.25</t>
-  </si>
-  <si>
     <t>Hatay Range</t>
   </si>
   <si>
     <t>Hatay RWY 04/22</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.75</t>
+  </si>
+  <si>
+    <t>FARP Warsaw</t>
+  </si>
+  <si>
+    <t>COLT-1 &lt;- KILLER</t>
+  </si>
+  <si>
+    <t>Ka-50</t>
+  </si>
+  <si>
+    <t>R-828</t>
+  </si>
+  <si>
+    <t>ARK-22</t>
+  </si>
+  <si>
+    <t>1O</t>
+  </si>
+  <si>
+    <t>1I</t>
+  </si>
+  <si>
+    <t>2O</t>
+  </si>
+  <si>
+    <t>2I</t>
+  </si>
+  <si>
+    <t>3O</t>
+  </si>
+  <si>
+    <t>3I</t>
+  </si>
+  <si>
+    <t>4O</t>
+  </si>
+  <si>
+    <t>4I</t>
+  </si>
+  <si>
+    <t>5O</t>
+  </si>
+  <si>
+    <t>5I</t>
+  </si>
+  <si>
+    <t>6I</t>
+  </si>
+  <si>
+    <t>6O</t>
+  </si>
+  <si>
+    <t>7O</t>
+  </si>
+  <si>
+    <t>7I</t>
+  </si>
+  <si>
+    <t>8O</t>
+  </si>
+  <si>
+    <t>8I</t>
+  </si>
+  <si>
+    <t>25.70</t>
   </si>
 </sst>
 </file>
@@ -209,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -334,11 +405,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -505,6 +656,120 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,11 +1084,408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
+  <dimension ref="C2:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="58"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D5" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="78"/>
+      <c r="G5" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="77"/>
+      <c r="I5" s="88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="89">
+        <v>1</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="92">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="94">
+        <v>3</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="79">
+        <v>4</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="79">
+        <v>5</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="71"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="79">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="79">
+        <v>7</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="96"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="79">
+        <v>8</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="96"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="79">
+        <v>9</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="96"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D15" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="97">
+        <v>10</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C16" s="66"/>
+      <c r="D16" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="67"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C17" s="66"/>
+      <c r="D17" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="67"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C18" s="66"/>
+      <c r="D18" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="67"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="66"/>
+      <c r="D19" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="71"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20" s="66"/>
+      <c r="D20" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="67"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C21" s="66"/>
+      <c r="D21" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C22" s="66"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="67"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C23" s="66"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="67"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24" s="66"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="67"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C25" s="66"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="67"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D26" s="63"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D27" s="63"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="30"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D31" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
   <dimension ref="D2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,8 +1823,12 @@
       <c r="D26" s="35">
         <v>9</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="22"/>
+      <c r="E26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="G26" s="35">
         <v>9</v>
       </c>
@@ -1174,10 +1840,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="G27" s="39">
         <v>10</v>
@@ -1213,7 +1879,7 @@
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>

--- a/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA745BCF-9561-4CF9-8999-FF7F9C23E9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5178E60F-8CC4-4034-80AA-05C3022E3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Colt 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Apache-1" sheetId="1" r:id="rId2"/>
+    <sheet name="Enfield-1" sheetId="5" r:id="rId1"/>
+    <sheet name="Roman-1" sheetId="4" r:id="rId2"/>
+    <sheet name="Colt 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Colt 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Apache-1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Apache-1'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Colt 1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Apache-1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Colt 1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Colt 2'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Enfield-1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Roman-1'!$D$3:$I$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="81">
   <si>
     <t>ARC-186</t>
   </si>
@@ -208,13 +214,88 @@
   </si>
   <si>
     <t>25.70</t>
+  </si>
+  <si>
+    <t>COLT-2 &lt;- KILLER</t>
+  </si>
+  <si>
+    <t>Mi-24</t>
+  </si>
+  <si>
+    <t>R-863</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>113.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>Warsaw NDB</t>
+  </si>
+  <si>
+    <t>F-18</t>
+  </si>
+  <si>
+    <t>ROMAN-1 &lt;- PRAYER</t>
+  </si>
+  <si>
+    <t>ARC-210</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>AUX</t>
+  </si>
+  <si>
+    <t>Warsaw NDB 50 Mhz FM</t>
+  </si>
+  <si>
+    <t>129.25</t>
+  </si>
+  <si>
+    <t>120.75</t>
+  </si>
+  <si>
+    <t>256.10</t>
+  </si>
+  <si>
+    <t>231.75</t>
+  </si>
+  <si>
+    <t>255.50</t>
+  </si>
+  <si>
+    <t>MF1</t>
+  </si>
+  <si>
+    <t>ENFIELD-1 &lt;- PRAYER</t>
+  </si>
+  <si>
+    <t>130.25</t>
+  </si>
+  <si>
+    <t>257.10</t>
+  </si>
+  <si>
+    <t>TRAP-136</t>
+  </si>
+  <si>
+    <t>TRAP-137B</t>
+  </si>
+  <si>
+    <t>UHF/VHF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +322,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +367,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -406,17 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -427,7 +516,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -436,60 +525,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -498,9 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -632,30 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,76 +712,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,11 +1145,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
-  <dimension ref="C2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02678EA-46E4-4A82-8844-3A8C9E213DB4}">
+  <dimension ref="D2:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1097,341 +1158,403 @@
     <col min="9" max="9" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="58"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="88" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="89">
+    <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D3" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="106"/>
+      <c r="I5" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D6" s="82">
         <v>1</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="92">
+      <c r="E6" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="107">
+        <v>1</v>
+      </c>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="33">
         <v>2</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="93" t="s">
+      <c r="E7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="90">
+        <v>2</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D8" s="33">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="90">
+        <v>3</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D9" s="39">
+        <v>4</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="39">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D10" s="39">
+        <v>5</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="39">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D11" s="34">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="34">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="34">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="34">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D13" s="34">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="34">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="34">
+        <v>9</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="34">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D15" s="90">
+        <v>10</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="90">
+        <v>10</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D16" s="32">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="32">
+        <v>11</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D17" s="36">
+        <v>12</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="94">
-        <v>3</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="G17" s="36">
         <v>12</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="H17" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="37">
+        <v>13</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="79">
-        <v>4</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="96"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="79">
-        <v>5</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="96"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="79">
-        <v>6</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="96"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="79">
-        <v>7</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="96"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="79">
-        <v>8</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="96"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="79">
-        <v>9</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="96"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D15" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="97">
-        <v>10</v>
-      </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="66"/>
-      <c r="D16" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="67"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="66"/>
-      <c r="D17" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="67"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="66"/>
-      <c r="D18" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="67"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C19" s="66"/>
-      <c r="D19" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="67"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C20" s="66"/>
-      <c r="D20" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="67"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C21" s="66"/>
-      <c r="D21" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="67"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C22" s="66"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="67"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C23" s="66"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="67"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C24" s="66"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="67"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C25" s="66"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="67"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D26" s="63"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D27" s="63"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="30"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="53" t="s">
+      <c r="G18" s="37">
+        <v>13</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="34">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="34">
+        <v>14</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D20" s="34">
+        <v>15</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="34">
+        <v>15</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D21" s="34">
+        <v>16</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="34">
+        <v>16</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D22" s="34">
+        <v>17</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="34">
+        <v>17</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D23" s="34">
+        <v>18</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="34">
+        <v>18</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D24" s="99">
+        <v>19</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="90">
+        <v>19</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="34">
+        <v>20</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="34">
+        <v>20</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D26" s="85"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="87"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D30" s="54" t="s">
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D31" s="54" t="s">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="42"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6"/>
@@ -1439,7 +1562,7 @@
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="42"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="6"/>
@@ -1447,7 +1570,7 @@
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="42"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="6"/>
@@ -1481,11 +1604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51AC91-C073-48F1-A978-1644164E838A}">
   <dimension ref="D2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1496,393 +1619,409 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="56"/>
+      <c r="D3" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="58"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48" t="s">
+      <c r="D5" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D6" s="82">
+        <v>1</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="82">
+        <v>1</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="33">
         <v>2</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="33">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="E7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="33">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D8" s="33">
         <v>3</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="E8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="33">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D9" s="39">
+        <v>4</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="39">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D10" s="39">
+        <v>5</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="39">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D11" s="34">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="34">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="34">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="34">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D13" s="34">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="34">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="34">
+        <v>9</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="34">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D15" s="90">
+        <v>10</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="90">
+        <v>10</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D16" s="32">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="35">
-        <v>1</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="34">
-        <v>2</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="G16" s="32">
+        <v>11</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D17" s="36">
+        <v>12</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="36">
+        <v>12</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="37">
+        <v>13</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="37">
+        <v>13</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="34">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="34">
+        <v>14</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D20" s="34">
+        <v>15</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="34">
+        <v>15</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D21" s="34">
         <v>16</v>
       </c>
-      <c r="G7" s="37">
-        <v>2</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="34">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="34">
+        <v>16</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D22" s="34">
         <v>17</v>
       </c>
-      <c r="G8" s="38">
-        <v>3</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="35">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="35">
-        <v>4</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="35">
-        <v>5</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="35">
-        <v>5</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="35">
-        <v>6</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="35">
-        <v>6</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="35">
-        <v>7</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="35">
-        <v>7</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="35">
-        <v>8</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="35">
-        <v>8</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="35">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="35">
-        <v>9</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="36">
-        <v>10</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="34">
+        <v>17</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D23" s="34">
+        <v>18</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="34">
+        <v>18</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D24" s="99">
+        <v>19</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F24" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="39">
-        <v>10</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F16" s="30"/>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="33">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="35">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="37">
-        <v>2</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="37">
-        <v>2</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="38">
-        <v>3</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="38">
-        <v>3</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D21" s="35">
-        <v>4</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="35">
-        <v>4</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="40">
-        <v>5</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="26" t="s">
+      <c r="G24" s="99">
         <v>19</v>
       </c>
-      <c r="G22" s="35">
-        <v>5</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="35">
-        <v>6</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="35">
-        <v>6</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="40">
-        <v>7</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="H24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="34">
         <v>20</v>
       </c>
-      <c r="G24" s="35">
-        <v>7</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="35">
-        <v>8</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="35">
-        <v>8</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="11"/>
+      <c r="E25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="34">
+        <v>20</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="35">
-        <v>9</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="35">
-        <v>9</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="39">
-        <v>10</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="39">
-        <v>10</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="12"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="87"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="30"/>
-      <c r="I28" s="32"/>
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="62"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6"/>
@@ -1890,7 +2029,7 @@
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="42"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6"/>
@@ -1898,7 +2037,7 @@
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="42"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="6"/>
@@ -1906,7 +2045,1331 @@
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="42"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB44D7-81E5-4063-8B60-ACF5218F804D}">
+  <dimension ref="C2:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="82">
+        <v>0</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="86">
+        <v>1</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="36">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="33">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="101">
+        <v>3</v>
+      </c>
+      <c r="H8" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="39">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="34">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="39">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="34">
+        <v>5</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="90">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="34">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="90">
+        <v>6</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="34">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="90">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="34">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="90">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="34">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="32">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="38">
+        <v>10</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C16" s="57"/>
+      <c r="D16" s="36">
+        <v>10</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C17" s="57"/>
+      <c r="D17" s="101">
+        <v>11</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C18" s="57"/>
+      <c r="D18" s="90">
+        <v>12</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="57"/>
+      <c r="D19" s="90">
+        <v>13</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20" s="57"/>
+      <c r="D20" s="90">
+        <v>14</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C21" s="57"/>
+      <c r="D21" s="90">
+        <v>15</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C22" s="57"/>
+      <c r="D22" s="90">
+        <v>16</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="58"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C23" s="57"/>
+      <c r="D23" s="90">
+        <v>17</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24" s="57"/>
+      <c r="D24" s="90">
+        <v>18</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="57"/>
+      <c r="D25" s="94">
+        <v>19</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="58"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
+  <dimension ref="C2:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="86">
+        <v>1</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="36">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="37">
+        <v>3</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="34">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="34">
+        <v>5</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="34">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="34">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="34">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="34">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="38">
+        <v>10</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C16" s="57"/>
+      <c r="D16" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C17" s="57"/>
+      <c r="D17" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C18" s="57"/>
+      <c r="D18" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="57"/>
+      <c r="D19" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20" s="57"/>
+      <c r="D20" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="57"/>
+      <c r="D21" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C22" s="57"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="58"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C23" s="57"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24" s="57"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C25" s="57"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="58"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D26" s="54"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
+  <dimension ref="D2:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D3" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="34">
+        <v>1</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="33">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="36">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D8" s="33">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="37">
+        <v>3</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D9" s="34">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="34">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D10" s="34">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="34">
+        <v>5</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D11" s="34">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="34">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="34">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="34">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D13" s="34">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="34">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="34">
+        <v>9</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="34">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="35">
+        <v>10</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="38">
+        <v>10</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="29"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="36">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="36">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D20" s="37">
+        <v>3</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="37">
+        <v>3</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D21" s="34">
+        <v>4</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="34">
+        <v>4</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D22" s="39">
+        <v>5</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="34">
+        <v>5</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D23" s="34">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="34">
+        <v>6</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D24" s="39">
+        <v>7</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="34">
+        <v>7</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D25" s="34">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="34">
+        <v>8</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D26" s="34">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="34">
+        <v>9</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="38">
+        <v>10</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="38">
+        <v>10</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="6"/>

--- a/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\RANGE\AG\Kneeboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD808D6-2C49-4236-A6EA-635BACC8216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBBCEE-24C2-4E24-B6C3-42A8DE75BC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AV8" sheetId="15" r:id="rId1"/>
@@ -800,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,12 +906,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,15 +1083,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1110,19 +1103,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,13 +1145,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1167,7 +1160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,9 +1185,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1230,37 +1219,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1308,31 +1282,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,13 +1303,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1359,39 +1318,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1406,7 +1357,7 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1418,19 +1369,19 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,7 +1399,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,7 +1408,7 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1466,28 +1417,28 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,7 +1447,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1511,25 +1462,25 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,7 +1495,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,33 +1507,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,88 +1538,78 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1700,7 +1631,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2065,1006 +1996,997 @@
   </sheetPr>
   <dimension ref="D2:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" customWidth="1"/>
-    <col min="7" max="8" width="8.6328125" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="10" max="11" width="8.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="3.36328125" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="217"/>
-    </row>
-    <row r="4" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="219"/>
-    </row>
-    <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="188"/>
+    </row>
+    <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="190"/>
+    </row>
+    <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="191" t="s">
+      <c r="G5" s="162" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="191"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="162"/>
+      <c r="I5" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D6" s="198">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="169">
         <v>1</v>
       </c>
-      <c r="E6" s="199" t="s">
+      <c r="E6" s="170" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="200" t="s">
+      <c r="F6" s="171" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="198">
+      <c r="G6" s="169">
         <v>1</v>
       </c>
-      <c r="H6" s="199" t="s">
+      <c r="H6" s="170" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="200" t="s">
+      <c r="I6" s="171" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="198">
+      <c r="J6" s="169">
         <v>1</v>
       </c>
-      <c r="K6" s="199" t="s">
+      <c r="K6" s="170" t="s">
         <v>204</v>
       </c>
-      <c r="L6" s="200" t="s">
+      <c r="L6" s="171" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D7" s="107">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="89">
         <v>2</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="107">
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="89">
         <v>2</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="107">
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="89">
         <v>2</v>
       </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="109"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D8" s="107">
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="89">
         <v>3</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="107">
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="89">
         <v>3</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="107">
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="89">
         <v>3</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="109"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D9" s="211">
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="182">
         <v>4</v>
       </c>
-      <c r="E9" s="212" t="s">
+      <c r="E9" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="213" t="s">
+      <c r="F9" s="184" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="211">
+      <c r="G9" s="182">
         <v>4</v>
       </c>
-      <c r="H9" s="212" t="s">
+      <c r="H9" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="213" t="s">
+      <c r="I9" s="184" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="211">
+      <c r="J9" s="182">
         <v>4</v>
       </c>
-      <c r="K9" s="212" t="s">
+      <c r="K9" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="213" t="s">
+      <c r="L9" s="184" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D10" s="107">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="89">
         <v>5</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="89">
         <v>5</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="107">
+      <c r="J10" s="89">
         <v>5</v>
       </c>
-      <c r="K10" s="108" t="s">
+      <c r="K10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="109" t="s">
+      <c r="L10" s="91" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D11" s="117">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="98">
         <v>6</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="98">
         <v>6</v>
       </c>
-      <c r="H11" s="118" t="s">
+      <c r="H11" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="117">
+      <c r="J11" s="98">
         <v>6</v>
       </c>
-      <c r="K11" s="118" t="s">
+      <c r="K11" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="L11" s="119" t="s">
+      <c r="L11" s="100" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D12" s="117">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="98">
         <v>7</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="117">
+      <c r="G12" s="98">
         <v>7</v>
       </c>
-      <c r="H12" s="118" t="s">
+      <c r="H12" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="J12" s="117">
+      <c r="J12" s="98">
         <v>7</v>
       </c>
-      <c r="K12" s="118" t="s">
+      <c r="K12" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="119" t="s">
+      <c r="L12" s="100" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D13" s="125">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
         <v>8</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F13" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="106">
         <v>8</v>
       </c>
-      <c r="H13" s="126" t="s">
+      <c r="H13" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="127" t="s">
+      <c r="I13" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="207">
+      <c r="J13" s="178">
         <v>8</v>
       </c>
-      <c r="K13" s="208" t="s">
+      <c r="K13" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="209" t="s">
+      <c r="L13" s="180" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D14" s="125">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
         <v>9</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="125">
+      <c r="G14" s="106">
         <v>9</v>
       </c>
-      <c r="H14" s="126" t="s">
+      <c r="H14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="127" t="s">
+      <c r="I14" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="207">
+      <c r="J14" s="178">
         <v>9</v>
       </c>
-      <c r="K14" s="208" t="s">
+      <c r="K14" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="L14" s="209" t="s">
+      <c r="L14" s="180" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D15" s="125">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
         <v>10</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="127" t="s">
+      <c r="F15" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="106">
         <v>10</v>
       </c>
-      <c r="H15" s="126" t="s">
+      <c r="H15" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="127" t="s">
+      <c r="I15" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="207">
+      <c r="J15" s="178">
         <v>10</v>
       </c>
-      <c r="K15" s="208" t="s">
+      <c r="K15" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="210" t="s">
+      <c r="L15" s="181" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D16" s="125">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
         <v>11</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="125">
+      <c r="G16" s="106">
         <v>11</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="127" t="s">
+      <c r="I16" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="207">
+      <c r="J16" s="178">
         <v>11</v>
       </c>
-      <c r="K16" s="208" t="s">
+      <c r="K16" s="179" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="209" t="s">
+      <c r="L16" s="180" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D17" s="125">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
         <v>12</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="106">
         <v>12</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="127" t="s">
+      <c r="I17" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="207">
+      <c r="J17" s="178">
         <v>12</v>
       </c>
-      <c r="K17" s="208" t="s">
+      <c r="K17" s="179" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="209" t="s">
+      <c r="L17" s="180" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D18" s="214">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="185">
         <v>13</v>
       </c>
-      <c r="E18" s="182" t="s">
+      <c r="E18" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="214">
+      <c r="G18" s="185">
         <v>13</v>
       </c>
-      <c r="H18" s="182" t="s">
+      <c r="H18" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="I18" s="183" t="s">
+      <c r="I18" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="J18" s="181">
+      <c r="J18" s="156">
         <v>13</v>
       </c>
-      <c r="K18" s="182" t="s">
+      <c r="K18" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="L18" s="183" t="s">
+      <c r="L18" s="158" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D19" s="214">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="185">
         <v>14</v>
       </c>
-      <c r="E19" s="182" t="s">
+      <c r="E19" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="183" t="s">
+      <c r="F19" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="214">
+      <c r="G19" s="185">
         <v>14</v>
       </c>
-      <c r="H19" s="182" t="s">
+      <c r="H19" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="I19" s="183" t="s">
+      <c r="I19" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="181">
+      <c r="J19" s="156">
         <v>14</v>
       </c>
-      <c r="K19" s="182" t="s">
+      <c r="K19" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="L19" s="183" t="s">
+      <c r="L19" s="158" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D20" s="214">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="185">
         <v>15</v>
       </c>
-      <c r="E20" s="182" t="s">
+      <c r="E20" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="F20" s="183" t="s">
+      <c r="F20" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="G20" s="214">
+      <c r="G20" s="185">
         <v>15</v>
       </c>
-      <c r="H20" s="182" t="s">
+      <c r="H20" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="183" t="s">
+      <c r="I20" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="181">
+      <c r="J20" s="156">
         <v>15</v>
       </c>
-      <c r="K20" s="182" t="s">
+      <c r="K20" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="L20" s="183" t="s">
+      <c r="L20" s="158" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D21" s="201">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="172">
         <v>16</v>
       </c>
-      <c r="E21" s="202" t="s">
+      <c r="E21" s="173" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="203" t="s">
+      <c r="F21" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="201">
+      <c r="G21" s="172">
         <v>16</v>
       </c>
-      <c r="H21" s="202" t="s">
+      <c r="H21" s="173" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="203" t="s">
+      <c r="I21" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="201">
+      <c r="J21" s="172">
         <v>16</v>
       </c>
-      <c r="K21" s="202" t="s">
+      <c r="K21" s="173" t="s">
         <v>206</v>
       </c>
-      <c r="L21" s="203" t="s">
+      <c r="L21" s="174" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D22" s="214">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="185">
         <v>17</v>
       </c>
-      <c r="E22" s="182" t="s">
+      <c r="E22" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="183" t="s">
+      <c r="F22" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="214">
+      <c r="G22" s="185">
         <v>17</v>
       </c>
-      <c r="H22" s="182" t="s">
+      <c r="H22" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="I22" s="183" t="s">
+      <c r="I22" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="181">
+      <c r="J22" s="156">
         <v>17</v>
       </c>
-      <c r="K22" s="182" t="s">
+      <c r="K22" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="L22" s="183" t="s">
+      <c r="L22" s="158" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D23" s="214">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="185">
         <v>18</v>
       </c>
-      <c r="E23" s="182" t="s">
+      <c r="E23" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="183" t="s">
+      <c r="F23" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="G23" s="214">
+      <c r="G23" s="185">
         <v>18</v>
       </c>
-      <c r="H23" s="182" t="s">
+      <c r="H23" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="I23" s="183" t="s">
+      <c r="I23" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="J23" s="181">
+      <c r="J23" s="156">
         <v>18</v>
       </c>
-      <c r="K23" s="182" t="s">
+      <c r="K23" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="L23" s="183" t="s">
+      <c r="L23" s="158" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D24" s="204">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="175">
         <v>19</v>
       </c>
-      <c r="E24" s="205" t="s">
+      <c r="E24" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="206" t="s">
+      <c r="F24" s="177" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="204">
+      <c r="G24" s="175">
         <v>19</v>
       </c>
-      <c r="H24" s="205" t="s">
+      <c r="H24" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="I24" s="206" t="s">
+      <c r="I24" s="177" t="s">
         <v>208</v>
       </c>
-      <c r="J24" s="204">
+      <c r="J24" s="175">
         <v>19</v>
       </c>
-      <c r="K24" s="205" t="s">
+      <c r="K24" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="L24" s="206" t="s">
+      <c r="L24" s="177" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D25" s="214">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="185">
         <v>20</v>
       </c>
-      <c r="E25" s="182" t="s">
+      <c r="E25" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="183" t="s">
+      <c r="F25" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="214">
+      <c r="G25" s="185">
         <v>20</v>
       </c>
-      <c r="H25" s="182" t="s">
+      <c r="H25" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="183" t="s">
+      <c r="I25" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="J25" s="214">
+      <c r="J25" s="185">
         <v>20</v>
       </c>
-      <c r="K25" s="182" t="s">
+      <c r="K25" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="L25" s="183" t="s">
+      <c r="L25" s="158" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D26" s="214">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="185">
         <v>21</v>
       </c>
-      <c r="E26" s="182" t="s">
+      <c r="E26" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="183" t="s">
+      <c r="F26" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="G26" s="214">
+      <c r="G26" s="185">
         <v>21</v>
       </c>
-      <c r="H26" s="182" t="s">
+      <c r="H26" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="I26" s="183" t="s">
+      <c r="I26" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="J26" s="214">
+      <c r="J26" s="185">
         <v>21</v>
       </c>
-      <c r="K26" s="182" t="s">
+      <c r="K26" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="L26" s="183" t="s">
+      <c r="L26" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="M26" s="111"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D27" s="147">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="128">
         <v>22</v>
       </c>
-      <c r="E27" s="148" t="s">
+      <c r="E27" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="149" t="s">
+      <c r="F27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="147">
+      <c r="G27" s="128">
         <v>22</v>
       </c>
-      <c r="H27" s="148" t="s">
+      <c r="H27" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="I27" s="149" t="s">
+      <c r="I27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="J27" s="147">
+      <c r="J27" s="128">
         <v>22</v>
       </c>
-      <c r="K27" s="148" t="s">
+      <c r="K27" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="L27" s="149" t="s">
+      <c r="L27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="222"/>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D28" s="147">
+      <c r="M27" s="193"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="128">
         <v>23</v>
       </c>
-      <c r="E28" s="148" t="s">
+      <c r="E28" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="149" t="s">
+      <c r="F28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="147">
+      <c r="G28" s="128">
         <v>23</v>
       </c>
-      <c r="H28" s="148" t="s">
+      <c r="H28" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="149" t="s">
+      <c r="I28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="147">
+      <c r="J28" s="128">
         <v>23</v>
       </c>
-      <c r="K28" s="148" t="s">
+      <c r="K28" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="L28" s="149" t="s">
+      <c r="L28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="222"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D29" s="147">
+      <c r="M28" s="193"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="128">
         <v>24</v>
       </c>
-      <c r="E29" s="148" t="s">
+      <c r="E29" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="149" t="s">
+      <c r="F29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="147">
+      <c r="G29" s="128">
         <v>24</v>
       </c>
-      <c r="H29" s="148" t="s">
+      <c r="H29" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="149" t="s">
+      <c r="I29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="J29" s="147">
+      <c r="J29" s="128">
         <v>24</v>
       </c>
-      <c r="K29" s="148" t="s">
+      <c r="K29" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="L29" s="149" t="s">
+      <c r="L29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="222"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D30" s="147">
+      <c r="M29" s="193"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="128">
         <v>25</v>
       </c>
-      <c r="E30" s="148" t="s">
+      <c r="E30" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="149" t="s">
+      <c r="F30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="G30" s="147">
+      <c r="G30" s="128">
         <v>25</v>
       </c>
-      <c r="H30" s="148" t="s">
+      <c r="H30" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="149" t="s">
+      <c r="I30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="147">
+      <c r="J30" s="128">
         <v>25</v>
       </c>
-      <c r="K30" s="148" t="s">
+      <c r="K30" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="L30" s="149" t="s">
+      <c r="L30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="222"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D31" s="147">
+      <c r="M30" s="193"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="128">
         <v>26</v>
       </c>
-      <c r="E31" s="148" t="s">
+      <c r="E31" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="149" t="s">
+      <c r="F31" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="147">
+      <c r="G31" s="128">
         <v>26</v>
       </c>
-      <c r="H31" s="148" t="s">
+      <c r="H31" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="149" t="s">
+      <c r="I31" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="147">
+      <c r="J31" s="128">
         <v>26</v>
       </c>
-      <c r="K31" s="148" t="s">
+      <c r="K31" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="L31" s="149" t="s">
+      <c r="L31" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="M31" s="111"/>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D32" s="107"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="107">
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="89"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="89">
         <v>27</v>
       </c>
-      <c r="K32" s="108"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="111"/>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="107">
+      <c r="K32" s="90"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="89">
         <v>28</v>
       </c>
-      <c r="K33" s="108"/>
-      <c r="L33" s="109"/>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D34" s="107"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="192"/>
-      <c r="J34" s="137">
+      <c r="K33" s="90"/>
+      <c r="L33" s="91"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="118">
         <v>29</v>
       </c>
-      <c r="K34" s="138" t="s">
+      <c r="K34" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="L34" s="139" t="s">
+      <c r="L34" s="120" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="194"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="215">
+    <row r="35" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="165"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="186">
         <v>30</v>
       </c>
-      <c r="K35" s="138" t="s">
+      <c r="K35" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="L35" s="139" t="s">
+      <c r="L35" s="120" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D36" s="77"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="79"/>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D37" s="54"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="55"/>
-    </row>
-    <row r="38" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="L38" s="31"/>
-    </row>
-    <row r="39" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D39" s="150" t="s">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="67"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="69"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="51"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="52"/>
+    </row>
+    <row r="38" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="223" t="s">
+      <c r="K39" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="224"/>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D40" s="152" t="s">
+      <c r="L39" s="195"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="104"/>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D41" s="159" t="s">
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="87"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="160"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="141"/>
+      <c r="F41" s="142"/>
+      <c r="G41" t="s">
         <v>202</v>
       </c>
-      <c r="H41" s="172" t="s">
+      <c r="H41" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="I41" s="172"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="104"/>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D42" s="159" t="s">
+      <c r="I41" s="28"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="87"/>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="160"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="141"/>
+      <c r="F42" s="142"/>
+      <c r="G42" t="s">
         <v>209</v>
       </c>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="104"/>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D43" s="159" t="s">
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D43" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="160"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="3" t="s">
+      <c r="E43" s="141"/>
+      <c r="F43" s="142"/>
+      <c r="G43" t="s">
         <v>210</v>
       </c>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="104"/>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D44" s="53"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="104"/>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D45" s="154"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="155"/>
-      <c r="G45" s="155"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D46" s="156"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="158"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="87"/>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D44" s="50"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="87"/>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D45" s="135"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="137"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3087,348 +3009,327 @@
   <dimension ref="C2:N36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="180" t="s">
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D6" s="162">
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="143">
         <v>1</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="144" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="164" t="s">
+      <c r="F6" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D7" s="165">
+      <c r="G6" s="88"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="146">
         <v>2</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D8" s="165">
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="146">
         <v>3</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D9" s="189">
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="156">
         <v>4</v>
       </c>
-      <c r="E9" s="190" t="s">
+      <c r="E9" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="183" t="s">
+      <c r="F9" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="109"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D10" s="189">
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="156">
         <v>5</v>
       </c>
-      <c r="E10" s="190" t="s">
+      <c r="E10" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="183" t="s">
+      <c r="F10" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-    </row>
-    <row r="11" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="184">
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="159">
         <v>6</v>
       </c>
-      <c r="E11" s="185" t="s">
+      <c r="E11" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="186" t="s">
+      <c r="F11" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="107"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="222"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
-    </row>
-    <row r="25" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="N27" s="102"/>
-    </row>
-    <row r="28" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="5"/>
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="168" t="s">
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="193"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="89"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="193"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="193"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="149" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="223" t="s">
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D30" s="168" t="s">
+      <c r="I29" s="195"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D31" s="171"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D32" s="171"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="179"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="104"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="171"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="173"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="154"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="174"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="158"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="50"/>
+      <c r="F31" s="28"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="50"/>
+      <c r="F34" s="28"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3457,423 +3358,402 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="180" t="s">
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D6" s="162">
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="143">
         <v>0</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="164" t="s">
+      <c r="F6" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D7" s="165">
+      <c r="G6" s="88"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="146">
         <v>1</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D8" s="165">
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="146">
         <v>2</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D9" s="107">
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="89">
         <v>3</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="109"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D10" s="107">
+      <c r="F9" s="105"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="89">
         <v>4</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D11" s="117">
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="98">
         <v>5</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="137">
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="118">
         <v>6</v>
       </c>
-      <c r="E12" s="138" t="s">
+      <c r="E12" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="139" t="s">
+      <c r="F12" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D13" s="181">
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="156">
         <v>7</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="E13" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D14" s="181">
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="156">
         <v>8</v>
       </c>
-      <c r="E14" s="182" t="s">
+      <c r="E14" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D15" s="181">
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="156">
         <v>9</v>
       </c>
-      <c r="E15" s="182" t="s">
+      <c r="E15" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="183" t="s">
+      <c r="F15" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D16" s="181">
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="156">
         <v>10</v>
       </c>
-      <c r="E16" s="182" t="s">
+      <c r="E16" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="183" t="s">
+      <c r="F16" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="181">
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="193"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="156">
         <v>11</v>
       </c>
-      <c r="E17" s="182" t="s">
+      <c r="E17" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="183" t="s">
+      <c r="F17" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="142">
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
         <v>12</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="144" t="s">
+      <c r="F18" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="142">
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="193"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
         <v>13</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="222"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="147">
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="193"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="128">
         <v>14</v>
       </c>
-      <c r="E20" s="148" t="s">
+      <c r="E20" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="149" t="s">
+      <c r="F20" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="147">
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="128">
         <v>15</v>
       </c>
-      <c r="E21" s="148" t="s">
+      <c r="E21" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="149" t="s">
+      <c r="F21" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D22" s="147">
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="128">
         <v>16</v>
       </c>
-      <c r="E22" s="148" t="s">
+      <c r="E22" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="149" t="s">
+      <c r="F22" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D23" s="147">
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="128">
         <v>17</v>
       </c>
-      <c r="E23" s="148" t="s">
+      <c r="E23" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="149" t="s">
+      <c r="F23" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="107"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D24" s="147">
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="128">
         <v>18</v>
       </c>
-      <c r="E24" s="148" t="s">
+      <c r="E24" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="149" t="s">
+      <c r="F24" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
-    </row>
-    <row r="25" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="181">
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="156">
         <v>19</v>
       </c>
-      <c r="E25" s="182" t="s">
+      <c r="E25" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="183" t="s">
+      <c r="F25" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="N27" s="102"/>
-    </row>
-    <row r="28" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="5"/>
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="171"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="50"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D31" s="171"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D32" s="53"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="179"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="104"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="171"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="173"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="154"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="174"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="158"/>
+      <c r="I29" s="195"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="50"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="50"/>
+      <c r="F31" s="28"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="50"/>
+      <c r="F34" s="28"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3902,543 +3782,524 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D6" s="162">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="143">
         <v>1</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="164" t="s">
+      <c r="F6" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="88">
         <v>1</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D7" s="165">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="146">
         <v>2</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="181">
+      <c r="G7" s="156">
         <v>2</v>
       </c>
-      <c r="H7" s="182" t="s">
+      <c r="H7" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="183" t="s">
+      <c r="I7" s="158" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D8" s="165">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="146">
         <v>3</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="181">
+      <c r="G8" s="156">
         <v>3</v>
       </c>
-      <c r="H8" s="182" t="s">
+      <c r="H8" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="183" t="s">
+      <c r="I8" s="158" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D9" s="107">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="89">
         <v>4</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="181">
+      <c r="F9" s="105"/>
+      <c r="G9" s="156">
         <v>4</v>
       </c>
-      <c r="H9" s="182" t="s">
+      <c r="H9" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="183" t="s">
+      <c r="I9" s="158" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D10" s="107">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="89">
         <v>5</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="181">
+      <c r="G10" s="156">
         <v>5</v>
       </c>
-      <c r="H10" s="182" t="s">
+      <c r="H10" s="157" t="s">
         <v>168</v>
       </c>
-      <c r="I10" s="183" t="s">
+      <c r="I10" s="158" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D11" s="117">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="98">
         <v>6</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="181">
+      <c r="G11" s="156">
         <v>6</v>
       </c>
-      <c r="H11" s="182" t="s">
+      <c r="H11" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="183" t="s">
+      <c r="I11" s="158" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="107">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="89">
         <v>7</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="181">
+      <c r="F12" s="91"/>
+      <c r="G12" s="156">
         <v>7</v>
       </c>
-      <c r="H12" s="182" t="s">
+      <c r="H12" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="I12" s="183" t="s">
+      <c r="I12" s="158" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D13" s="125">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
         <v>8</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F13" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="181">
+      <c r="G13" s="156">
         <v>8</v>
       </c>
-      <c r="H13" s="182" t="s">
+      <c r="H13" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="I13" s="183" t="s">
+      <c r="I13" s="158" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D14" s="125">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
         <v>9</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="89">
         <v>9</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="91" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D15" s="125">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
         <v>10</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="127" t="s">
+      <c r="F15" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="89">
         <v>10</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D16" s="125">
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
         <v>11</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="89">
         <v>11</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="222"/>
-      <c r="K16" s="57"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="125">
+      <c r="J16" s="193"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
         <v>12</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="89">
         <v>12</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="222"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="142">
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
         <v>13</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="144" t="s">
+      <c r="F18" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="89">
         <v>13</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="109" t="s">
+      <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="222"/>
-      <c r="K18" s="57"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="142">
+      <c r="J18" s="193"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
         <v>14</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="89">
         <v>14</v>
       </c>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="I19" s="109"/>
-      <c r="J19" s="222"/>
-      <c r="K19" s="57"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="134">
+      <c r="I19" s="91"/>
+      <c r="J19" s="193"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="115">
         <v>15</v>
       </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="136" t="s">
+      <c r="F20" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="107">
+      <c r="G20" s="89">
         <v>15</v>
       </c>
-      <c r="H20" s="108" t="s">
+      <c r="H20" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="109"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="134">
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="115">
         <v>16</v>
       </c>
-      <c r="E21" s="135" t="s">
+      <c r="E21" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="107">
+      <c r="G21" s="89">
         <v>16</v>
       </c>
-      <c r="H21" s="108" t="s">
+      <c r="H21" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="109"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D22" s="134">
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="115">
         <v>17</v>
       </c>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="107">
+      <c r="G22" s="89">
         <v>17</v>
       </c>
-      <c r="H22" s="108" t="s">
+      <c r="H22" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="109"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D23" s="134">
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="115">
         <v>18</v>
       </c>
-      <c r="E23" s="135" t="s">
+      <c r="E23" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="136" t="s">
+      <c r="F23" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="89">
         <v>18</v>
       </c>
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="I23" s="109"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D24" s="134">
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="115">
         <v>19</v>
       </c>
-      <c r="E24" s="135" t="s">
+      <c r="E24" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="136" t="s">
+      <c r="F24" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="107">
+      <c r="G24" s="89">
         <v>19</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="I24" s="109"/>
-    </row>
-    <row r="25" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="107">
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="89">
         <v>20</v>
       </c>
-      <c r="E25" s="108" t="s">
+      <c r="E25" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="109"/>
-      <c r="G25" s="137">
+      <c r="F25" s="91"/>
+      <c r="G25" s="118">
         <v>20</v>
       </c>
-      <c r="H25" s="138" t="s">
+      <c r="H25" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="139" t="s">
+      <c r="I25" s="120" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="N27" s="102"/>
-    </row>
-    <row r="28" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="5"/>
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="168" t="s">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D30" s="168" t="s">
+      <c r="I29" s="195"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D31" s="176" t="s">
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="177"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="153"/>
+      <c r="F31" s="154"/>
+      <c r="G31" t="s">
         <v>211</v>
       </c>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D32" s="53"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="179"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="104"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="171"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="173"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="154"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="174"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="158"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="50"/>
+      <c r="F34" s="28"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4463,565 +4324,560 @@
   </sheetPr>
   <dimension ref="D2:T36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="116">
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="97">
         <v>1</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="109">
         <v>1</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="111" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="112">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="93">
         <v>2</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="131">
+      <c r="G7" s="112">
         <v>2</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="114" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="112">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="93">
         <v>3</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="134">
+      <c r="G8" s="115">
         <v>3</v>
       </c>
-      <c r="H8" s="135" t="s">
+      <c r="H8" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="112">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="93">
         <v>4</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="134">
+      <c r="G9" s="115">
         <v>4</v>
       </c>
-      <c r="H9" s="135" t="s">
+      <c r="H9" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="117" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="117">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="98">
         <v>5</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="115">
         <v>5</v>
       </c>
-      <c r="H10" s="135" t="s">
+      <c r="H10" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="136" t="s">
+      <c r="I10" s="117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="107">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="89">
         <v>6</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="141" t="s">
+      <c r="F11" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="115">
         <v>6</v>
       </c>
-      <c r="H11" s="135" t="s">
+      <c r="H11" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="136" t="s">
+      <c r="I11" s="117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="117">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="98">
         <v>7</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="115">
         <v>7</v>
       </c>
-      <c r="H12" s="135" t="s">
+      <c r="H12" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="I12" s="136" t="s">
+      <c r="I12" s="117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="125">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
         <v>8</v>
       </c>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F13" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="112">
         <v>8</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="133" t="s">
+      <c r="I13" s="114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="125">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
         <v>9</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="89">
         <v>9</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="91" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D15" s="125">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
         <v>10</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="127" t="s">
+      <c r="F15" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="89">
         <v>10</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="111"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D16" s="125">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
         <v>11</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="89">
         <v>11</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="222"/>
-    </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D17" s="125">
+      <c r="J16" s="193"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
         <v>12</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="89">
         <v>12</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="109" t="s">
+      <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="222"/>
-    </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D18" s="142">
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
         <v>13</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="144" t="s">
+      <c r="F18" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="89">
         <v>13</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="109" t="s">
+      <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="222"/>
-    </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D19" s="142">
+      <c r="J18" s="193"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
         <v>14</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="125">
+      <c r="G19" s="106">
         <v>14</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="127" t="s">
+      <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="222"/>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D20" s="112">
+      <c r="J19" s="193"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="93">
         <v>15</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="106">
         <v>15</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="127" t="s">
+      <c r="I20" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="111"/>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D21" s="112">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="93">
         <v>16</v>
       </c>
-      <c r="E21" s="122" t="s">
+      <c r="E21" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="123" t="s">
+      <c r="F21" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="125">
+      <c r="G21" s="106">
         <v>16</v>
       </c>
-      <c r="H21" s="126" t="s">
+      <c r="H21" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="127" t="s">
+      <c r="I21" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="J21" s="111"/>
-    </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D22" s="112">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="93">
         <v>17</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="115" t="s">
+      <c r="F22" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="112">
+      <c r="G22" s="93">
         <v>17</v>
       </c>
-      <c r="H22" s="113" t="s">
+      <c r="H22" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="115" t="s">
+      <c r="I22" s="96" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D23" s="214">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="185">
         <v>18</v>
       </c>
-      <c r="E23" s="182" t="s">
+      <c r="E23" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="183" t="s">
+      <c r="F23" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="112">
+      <c r="G23" s="93">
         <v>18</v>
       </c>
-      <c r="H23" s="113" t="s">
+      <c r="H23" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="115" t="s">
+      <c r="I23" s="96" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D24" s="214">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="185">
         <v>19</v>
       </c>
-      <c r="E24" s="182" t="s">
+      <c r="E24" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="183" t="s">
+      <c r="F24" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="G24" s="147">
+      <c r="G24" s="128">
         <v>19</v>
       </c>
-      <c r="H24" s="148" t="s">
+      <c r="H24" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="149" t="s">
+      <c r="I24" s="130" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="137">
+    <row r="25" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="118">
         <v>20</v>
       </c>
-      <c r="E25" s="138" t="s">
+      <c r="E25" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="139" t="s">
+      <c r="F25" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="137">
+      <c r="G25" s="118">
         <v>20</v>
       </c>
-      <c r="H25" s="138" t="s">
+      <c r="H25" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="139" t="s">
+      <c r="I25" s="120" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="T27" s="102"/>
-    </row>
-    <row r="28" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="150" t="s">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="T27" s="85"/>
+    </row>
+    <row r="28" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D30" s="152" t="s">
+      <c r="I29" s="195"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
-    </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D31" s="152" t="s">
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
-    </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D32" s="159" t="s">
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="160"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="3" t="s">
+      <c r="E32" s="141"/>
+      <c r="F32" s="142"/>
+      <c r="G32" t="s">
         <v>202</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="104"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="159" t="s">
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="160"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="141"/>
+      <c r="F33" s="142"/>
+      <c r="G33" t="s">
         <v>209</v>
       </c>
-      <c r="H33" s="105"/>
-      <c r="I33" s="104"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="159" t="s">
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="160"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="3" t="s">
+      <c r="E34" s="141"/>
+      <c r="F34" s="142"/>
+      <c r="G34" t="s">
         <v>210</v>
       </c>
-      <c r="H34" s="105"/>
-      <c r="I34" s="104"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="154"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="158"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5045,444 +4901,426 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="98"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="74">
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="64">
         <v>1</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="68">
         <v>1</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="33">
+      <c r="H6" s="58"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="32">
         <v>2</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="83"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="33">
+      <c r="H7" s="12"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="32">
         <v>3</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="83"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="39">
+      <c r="H8" s="12"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="37">
         <v>4</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="37">
         <v>4</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="39">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="37">
         <v>5</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>5</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="34">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
         <v>6</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="34">
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="34">
+      <c r="H11" s="12"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
         <v>7</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="34">
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
         <v>7</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="34">
+      <c r="H12" s="12"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
         <v>8</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="34">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
         <v>8</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="34">
+      <c r="H13" s="12"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
         <v>9</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="34">
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
         <v>9</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="82">
+      <c r="H14" s="12"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="32">
         <v>10</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="82">
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="32">
         <v>10</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="83"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="32">
+      <c r="H15" s="12"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="30">
         <v>11</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="30">
         <v>11</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D17" s="36">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="34">
         <v>12</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="34">
         <v>12</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="37">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="35">
         <v>13</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="35">
         <v>13</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="34">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="32">
         <v>14</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="34">
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="32">
         <v>14</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="34">
+      <c r="H19" s="12"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="32">
         <v>15</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="34">
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="32">
         <v>15</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D21" s="34">
+      <c r="H20" s="12"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
         <v>16</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="34">
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="32">
         <v>16</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="34">
+      <c r="H21" s="12"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="32">
         <v>17</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="34">
+      <c r="E22" s="12"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="32">
         <v>17</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="34">
+      <c r="H22" s="12"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
         <v>18</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="34">
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="32">
         <v>18</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="91">
+      <c r="H23" s="12"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="76">
         <v>19</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="32">
         <v>19</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="83"/>
-    </row>
-    <row r="25" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="34">
+      <c r="H24" s="12"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="32">
         <v>20</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="32">
         <v>20</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="77"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="79"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-    </row>
-    <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
+      <c r="I29" s="195"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5498,442 +5336,397 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB44D7-81E5-4063-8B60-ACF5218F804D}">
-  <dimension ref="C2:J36"/>
+  <dimension ref="D2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="67" t="s">
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="74">
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="64">
         <v>0</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="68">
         <v>1</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="74" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="33">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>2</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="33">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="78">
         <v>3</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="39">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="37">
         <v>3</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="32">
         <v>4</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="39">
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="37">
         <v>4</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="32">
         <v>5</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="82">
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
         <v>5</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="34">
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="82">
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
         <v>6</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="34">
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
         <v>7</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="82">
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
         <v>7</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="34">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
         <v>8</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="82">
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
         <v>8</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="34">
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
         <v>9</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="32">
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="30">
         <v>9</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="36">
         <v>10</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="57"/>
-      <c r="D16" s="36">
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="34">
         <v>10</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="57"/>
-      <c r="D17" s="93">
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="78">
         <v>11</v>
       </c>
-      <c r="E17" s="94" t="s">
+      <c r="E17" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="57"/>
-      <c r="D18" s="82">
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="32">
         <v>12</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C19" s="57"/>
-      <c r="D19" s="82">
+      <c r="E18" s="12"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="32">
         <v>13</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="58"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C20" s="57"/>
-      <c r="D20" s="82">
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="32">
         <v>14</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C21" s="57"/>
-      <c r="D21" s="82">
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
         <v>15</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C22" s="57"/>
-      <c r="D22" s="82">
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="32">
         <v>16</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="58"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C23" s="57"/>
-      <c r="D23" s="82">
+      <c r="E22" s="12"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
         <v>17</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C24" s="57"/>
-      <c r="D24" s="82">
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="32">
         <v>18</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="57"/>
-      <c r="D25" s="86">
+      <c r="G24" s="51"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="36">
         <v>19</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
+      <c r="G25" s="51"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
+      <c r="I29" s="195"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="53" t="s">
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5949,394 +5742,348 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
-  <dimension ref="C2:J36"/>
+  <dimension ref="D2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="80" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="82" t="s">
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="78">
+      <c r="E6" s="12"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="68">
         <v>1</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="74" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="82" t="s">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="36">
+      <c r="E7" s="12"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="34">
         <v>2</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="82" t="s">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="37">
+      <c r="E8" s="12"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="35">
         <v>3</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="82" t="s">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="34">
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="32">
         <v>4</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="82" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="34">
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32">
         <v>5</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="82" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="34">
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="82" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="34">
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
         <v>7</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="82" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="34">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
         <v>8</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="82" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="34">
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
         <v>9</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="82" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="38">
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="36">
         <v>10</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="57"/>
-      <c r="D16" s="82" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="57"/>
-      <c r="D17" s="82" t="s">
+      <c r="F16" s="72"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="57"/>
-      <c r="D18" s="82" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="72"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C19" s="57"/>
-      <c r="D19" s="82" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="58"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C20" s="57"/>
-      <c r="D20" s="82" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="57"/>
-      <c r="D21" s="86" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C22" s="57"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="58"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C23" s="57"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C24" s="57"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C25" s="57"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D26" s="54"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="51"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="51"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="51"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="51"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
+      <c r="I29" s="195"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="53" t="s">
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6358,454 +6105,435 @@
       <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="216" t="s">
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="216" t="s">
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="217"/>
-    </row>
-    <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="219"/>
-    </row>
-    <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="48" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="32">
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="30">
         <v>1</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="32">
         <v>1</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="33">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>2</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="33">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <v>3</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="34">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32">
         <v>4</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="34">
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="32">
         <v>4</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="34">
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="32">
         <v>5</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="34">
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32">
         <v>5</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="34">
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
         <v>6</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="34">
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="34">
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
         <v>7</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="34">
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
         <v>7</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="34">
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
         <v>8</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="34">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
         <v>8</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="34">
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
         <v>9</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="34">
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
         <v>9</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="35">
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="33">
         <v>10</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="36">
         <v>10</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F16" s="29"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="42" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="42" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="43" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="32">
+    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="30">
         <v>1</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="32">
         <v>1</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="81" t="s">
+      <c r="I18" s="71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="36">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="34">
         <v>2</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>2</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="37">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="35">
         <v>3</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="35">
         <v>3</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D21" s="34">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
         <v>4</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="34">
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="32">
         <v>4</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="39">
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="37">
         <v>5</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="32">
         <v>5</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="34">
+      <c r="H22" s="12"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
         <v>6</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="34">
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="32">
         <v>6</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="39">
+      <c r="H23" s="12"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="37">
         <v>7</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="32">
         <v>7</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="34">
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="32">
         <v>8</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="34">
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="32">
         <v>8</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="34">
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="32">
         <v>9</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="32">
         <v>9</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="38">
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="36">
         <v>10</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="36">
         <v>10</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
+      <c r="H27" s="17"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="224"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
+      <c r="I29" s="195"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="53" t="s">
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CBBCEE-24C2-4E24-B6C3-42A8DE75BC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633AA494-9C5F-4FF3-8C1E-7C74BF2E8722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AV8" sheetId="15" r:id="rId1"/>
@@ -18,21 +18,23 @@
     <sheet name="MiG-21" sheetId="13" r:id="rId3"/>
     <sheet name="F-16" sheetId="11" r:id="rId4"/>
     <sheet name="FA-18C" sheetId="4" r:id="rId5"/>
-    <sheet name="Mirage F1CE" sheetId="5" r:id="rId6"/>
-    <sheet name="Mi-24" sheetId="3" r:id="rId7"/>
-    <sheet name="Ka-50" sheetId="2" r:id="rId8"/>
-    <sheet name="AH-64" sheetId="1" r:id="rId9"/>
+    <sheet name="FA-14A" sheetId="16" r:id="rId6"/>
+    <sheet name="Mirage F1CE" sheetId="5" r:id="rId7"/>
+    <sheet name="Mi-24" sheetId="3" r:id="rId8"/>
+    <sheet name="Ka-50" sheetId="2" r:id="rId9"/>
+    <sheet name="AH-64" sheetId="1" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'AH-64'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'AH-64'!$D$3:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'AV8'!$D$3:$M$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'F-16'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'FA-14A'!$D$3:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'FA-18C'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Ka-50'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Mi-24'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Ka-50'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Mi-24'!$D$3:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'MiG-19'!$D$3:$J$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'MiG-21'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Mirage F1CE'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Mirage F1CE'!$D$3:$I$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="225">
   <si>
     <t>ARC-186</t>
   </si>
@@ -714,6 +716,21 @@
   </si>
   <si>
     <t>SOFIA</t>
+  </si>
+  <si>
+    <t>F/A-14A</t>
+  </si>
+  <si>
+    <t>AN/ARC-159</t>
+  </si>
+  <si>
+    <t>AN/ARC-182</t>
+  </si>
+  <si>
+    <t>225/399,97</t>
+  </si>
+  <si>
+    <t>30/399,97</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1639,6 +1656,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1996,8 +2028,8 @@
   </sheetPr>
   <dimension ref="D2:M46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,6 +3029,456 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
+  <dimension ref="D2:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="34">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="35">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="32">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="32">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="33">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="36">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="30">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="34">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="34">
+        <v>2</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="35">
+        <v>3</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="35">
+        <v>3</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="32">
+        <v>4</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="37">
+        <v>5</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="32">
+        <v>5</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="32">
+        <v>6</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="37">
+        <v>7</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="32">
+        <v>7</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="32">
+        <v>8</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="32">
+        <v>8</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="32">
+        <v>9</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="32">
+        <v>9</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="36">
+        <v>10</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="36">
+        <v>10</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="195"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -3355,7 +3837,7 @@
   <dimension ref="C2:N36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E13" sqref="E13:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4324,8 +4806,8 @@
   </sheetPr>
   <dimension ref="D2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4894,6 +5376,707 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F25AB18-3E43-4253-BC4D-F3ACD98E8098}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="D2:T44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="187" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="188"/>
+      <c r="F3" s="187" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="188"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="190"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="196" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="197"/>
+      <c r="F5" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="196" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="197"/>
+      <c r="I5" s="43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="97">
+        <v>1</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="109">
+        <v>1</v>
+      </c>
+      <c r="H6" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="93">
+        <v>2</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="112">
+        <v>2</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="93">
+        <v>3</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="115">
+        <v>3</v>
+      </c>
+      <c r="H8" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="93">
+        <v>4</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="115">
+        <v>4</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="98">
+        <v>5</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="115">
+        <v>5</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="89">
+        <v>6</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="115">
+        <v>6</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="98">
+        <v>7</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="115">
+        <v>7</v>
+      </c>
+      <c r="H12" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
+        <v>8</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="112">
+        <v>8</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
+        <v>9</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="89">
+        <v>9</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
+        <v>10</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="89">
+        <v>10</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
+        <v>11</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="89">
+        <v>11</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="193"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
+        <v>12</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="89">
+        <v>12</v>
+      </c>
+      <c r="H17" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
+        <v>13</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="89">
+        <v>13</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="193"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
+        <v>14</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="106">
+        <v>14</v>
+      </c>
+      <c r="H19" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="193"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="93">
+        <v>15</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="106">
+        <v>15</v>
+      </c>
+      <c r="H20" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="93">
+        <v>16</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="106">
+        <v>16</v>
+      </c>
+      <c r="H21" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="93">
+        <v>17</v>
+      </c>
+      <c r="E22" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="93">
+        <v>17</v>
+      </c>
+      <c r="H22" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="115">
+        <v>18</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="93">
+        <v>18</v>
+      </c>
+      <c r="H23" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="115">
+        <v>19</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="128">
+        <v>19</v>
+      </c>
+      <c r="H24" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="115">
+        <v>20</v>
+      </c>
+      <c r="E25" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="118">
+        <v>20</v>
+      </c>
+      <c r="H25" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="118">
+        <v>21</v>
+      </c>
+      <c r="H26" s="198" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="200">
+        <v>22</v>
+      </c>
+      <c r="H27" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="158" t="s">
+        <v>213</v>
+      </c>
+      <c r="T27" s="85"/>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="51"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="200">
+        <v>23</v>
+      </c>
+      <c r="H28" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="158" t="s">
+        <v>214</v>
+      </c>
+      <c r="T28" s="85"/>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="51"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="200">
+        <v>24</v>
+      </c>
+      <c r="H29" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="158" t="s">
+        <v>215</v>
+      </c>
+      <c r="T29" s="85"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="51"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="200">
+        <v>25</v>
+      </c>
+      <c r="H30" s="157" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="158" t="s">
+        <v>216</v>
+      </c>
+      <c r="T30" s="85"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="51"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="200">
+        <v>26</v>
+      </c>
+      <c r="H31" s="157" t="s">
+        <v>169</v>
+      </c>
+      <c r="I31" s="158" t="s">
+        <v>217</v>
+      </c>
+      <c r="T31" s="85"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="51"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="200">
+        <v>27</v>
+      </c>
+      <c r="H32" s="157" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="158" t="s">
+        <v>218</v>
+      </c>
+      <c r="T32" s="85"/>
+    </row>
+    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D33" s="51"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="200">
+        <v>28</v>
+      </c>
+      <c r="H33" s="157" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="158" t="s">
+        <v>219</v>
+      </c>
+      <c r="T33" s="85"/>
+    </row>
+    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D34" s="51"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="32">
+        <v>29</v>
+      </c>
+      <c r="H34" s="199"/>
+      <c r="I34" s="9"/>
+      <c r="T34" s="85"/>
+    </row>
+    <row r="35" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="51"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="36">
+        <v>30</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="10"/>
+      <c r="T35" s="85"/>
+    </row>
+    <row r="36" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="131" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="195"/>
+    </row>
+    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D38" s="133" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
+    </row>
+    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D39" s="133" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="87"/>
+    </row>
+    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D40" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="141"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="86"/>
+      <c r="I40" s="87"/>
+    </row>
+    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D41" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="141"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="86"/>
+      <c r="I41" s="87"/>
+    </row>
+    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D42" s="140" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="141"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="86"/>
+      <c r="I42" s="87"/>
+    </row>
+    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D43" s="135"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="137"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="139"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02678EA-46E4-4A82-8844-3A8C9E213DB4}">
   <dimension ref="D2:I36"/>
   <sheetViews>
@@ -5334,7 +6517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB44D7-81E5-4063-8B60-ACF5218F804D}">
   <dimension ref="D2:I36"/>
   <sheetViews>
@@ -5740,7 +6923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
   <dimension ref="D2:I36"/>
   <sheetViews>
@@ -6095,454 +7278,4 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
-  <dimension ref="D2:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
-    </row>
-    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
-    </row>
-    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="32">
-        <v>1</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="31">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="34">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="31">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="35">
-        <v>3</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="32">
-        <v>4</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="32">
-        <v>4</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="32">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="32">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="32">
-        <v>6</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="32">
-        <v>6</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="32">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="32">
-        <v>7</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="32">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="32">
-        <v>8</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="32">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="32">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="33">
-        <v>10</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="36">
-        <v>10</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="30">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="32">
-        <v>1</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="34">
-        <v>2</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="34">
-        <v>2</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="35">
-        <v>3</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="35">
-        <v>3</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="32">
-        <v>4</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="32">
-        <v>4</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="37">
-        <v>5</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="32">
-        <v>5</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="32">
-        <v>6</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="32">
-        <v>6</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="37">
-        <v>7</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="32">
-        <v>7</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="32">
-        <v>8</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="32">
-        <v>8</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="32">
-        <v>9</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="32">
-        <v>9</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="36">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="36">
-        <v>10</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="194" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="195"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="F32" s="28"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-      <c r="F34" s="28"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633AA494-9C5F-4FF3-8C1E-7C74BF2E8722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617CB6D6-B813-4A6A-923E-BA2B52995BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="AV8" sheetId="15" r:id="rId1"/>
-    <sheet name="MiG-19" sheetId="14" r:id="rId2"/>
-    <sheet name="MiG-21" sheetId="13" r:id="rId3"/>
-    <sheet name="F-16" sheetId="11" r:id="rId4"/>
-    <sheet name="FA-18C" sheetId="4" r:id="rId5"/>
-    <sheet name="FA-14A" sheetId="16" r:id="rId6"/>
-    <sheet name="Mirage F1CE" sheetId="5" r:id="rId7"/>
-    <sheet name="Mi-24" sheetId="3" r:id="rId8"/>
-    <sheet name="Ka-50" sheetId="2" r:id="rId9"/>
-    <sheet name="AH-64" sheetId="1" r:id="rId10"/>
+    <sheet name="P-47" sheetId="17" r:id="rId1"/>
+    <sheet name="AV8" sheetId="15" r:id="rId2"/>
+    <sheet name="MiG-19" sheetId="14" r:id="rId3"/>
+    <sheet name="MiG-21" sheetId="13" r:id="rId4"/>
+    <sheet name="F-16" sheetId="11" r:id="rId5"/>
+    <sheet name="FA-18C" sheetId="4" r:id="rId6"/>
+    <sheet name="FA-14A" sheetId="16" r:id="rId7"/>
+    <sheet name="Mirage F1CE" sheetId="5" r:id="rId8"/>
+    <sheet name="Mi-24" sheetId="3" r:id="rId9"/>
+    <sheet name="Ka-50" sheetId="2" r:id="rId10"/>
+    <sheet name="AH-64" sheetId="1" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'AH-64'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'AV8'!$D$3:$M$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'F-16'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'FA-14A'!$D$3:$J$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'FA-18C'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Ka-50'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Mi-24'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'MiG-19'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'MiG-21'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Mirage F1CE'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'AH-64'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'AV8'!$D$3:$M$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'F-16'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'FA-14A'!$D$3:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'FA-18C'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Ka-50'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Mi-24'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'MiG-19'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'MiG-21'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Mirage F1CE'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P-47'!$D$3:$J$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="230">
   <si>
     <t>ARC-186</t>
   </si>
@@ -731,6 +733,21 @@
   </si>
   <si>
     <t>30/399,97</t>
+  </si>
+  <si>
+    <t>P-47</t>
+  </si>
+  <si>
+    <t>SCR-522</t>
+  </si>
+  <si>
+    <t>BCR-1206</t>
+  </si>
+  <si>
+    <t>100/200</t>
+  </si>
+  <si>
+    <t>38/156</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1630,6 +1647,9 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,15 +1681,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2022,6 +2033,1250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB03D3C-8C30-43FB-9AAB-15549108B8FA}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="D2:T44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="188" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="197" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="198"/>
+      <c r="F5" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="197" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="198"/>
+      <c r="I5" s="43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="187">
+        <v>22</v>
+      </c>
+      <c r="E6" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="158" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="109">
+        <v>1</v>
+      </c>
+      <c r="H6" s="110">
+        <v>117.9</v>
+      </c>
+      <c r="I6" s="111"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="187">
+        <v>23</v>
+      </c>
+      <c r="E7" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="187">
+        <v>24</v>
+      </c>
+      <c r="E8" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="158" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="187">
+        <v>25</v>
+      </c>
+      <c r="E9" s="157" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="158" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="117"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="117"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="89"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="117"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="114"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="194"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="194"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="194"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="123"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="194"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="93"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="96"/>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="115"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="96"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+    </row>
+    <row r="25" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="158"/>
+      <c r="T27" s="85"/>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="51"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="158"/>
+      <c r="T28" s="85"/>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="51"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="158"/>
+      <c r="T29" s="85"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="51"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="158"/>
+      <c r="T30" s="85"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="51"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="158"/>
+      <c r="T31" s="85"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="51"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="158"/>
+      <c r="T32" s="85"/>
+    </row>
+    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D33" s="51"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="158"/>
+      <c r="T33" s="85"/>
+    </row>
+    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D34" s="51"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="9"/>
+      <c r="T34" s="85"/>
+    </row>
+    <row r="35" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="51"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="10"/>
+      <c r="T35" s="85"/>
+    </row>
+    <row r="36" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="131" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="196"/>
+    </row>
+    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D38" s="133" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="87"/>
+    </row>
+    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D39" s="133" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="87"/>
+    </row>
+    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D40" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="141"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="86"/>
+      <c r="I40" s="87"/>
+    </row>
+    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D41" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="141"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="86"/>
+      <c r="I41" s="87"/>
+    </row>
+    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D42" s="140" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="141"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="86"/>
+      <c r="I42" s="87"/>
+    </row>
+    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D43" s="135"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="137"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="139"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H37:I37"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
+  <dimension ref="D2:I36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="188" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="68">
+        <v>1</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="34">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="35">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="32">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="36">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="72"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="72"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="51"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="51"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="51"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="51"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="196"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
+  <dimension ref="D2:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="188" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="34">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="35">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="32">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="32">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="33">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="36">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="30">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="34">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="34">
+        <v>2</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="35">
+        <v>3</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="35">
+        <v>3</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="32">
+        <v>4</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="37">
+        <v>5</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="32">
+        <v>5</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="32">
+        <v>6</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="37">
+        <v>7</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="32">
+        <v>7</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="32">
+        <v>8</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="32">
+        <v>8</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="32">
+        <v>9</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="32">
+        <v>9</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="36">
+        <v>10</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="36">
+        <v>10</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="196"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365C29CA-8A91-4FD6-8610-04D4B59A757C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2045,30 +3300,30 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="188" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="188"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="189"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="191"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -2709,7 +3964,7 @@
       <c r="L27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="193"/>
+      <c r="M27" s="194"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="128">
@@ -2739,7 +3994,7 @@
       <c r="L28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="193"/>
+      <c r="M28" s="194"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="128">
@@ -2769,7 +4024,7 @@
       <c r="L29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="193"/>
+      <c r="M29" s="194"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="128">
@@ -2799,7 +4054,7 @@
       <c r="L30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="193"/>
+      <c r="M30" s="194"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="128">
@@ -2930,10 +4185,10 @@
       <c r="H39" s="132"/>
       <c r="I39" s="132"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="194" t="s">
+      <c r="K39" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="195"/>
+      <c r="L39" s="196"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="133" t="s">
@@ -3033,457 +4288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
-  <dimension ref="D2:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
-    </row>
-    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
-    </row>
-    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="32">
-        <v>1</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="31">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="34">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="31">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="35">
-        <v>3</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="32">
-        <v>4</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="32">
-        <v>4</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="32">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="32">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="32">
-        <v>6</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="32">
-        <v>6</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="32">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="32">
-        <v>7</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="32">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="32">
-        <v>8</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="32">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="32">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="33">
-        <v>10</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="36">
-        <v>10</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="30">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="32">
-        <v>1</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="34">
-        <v>2</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="34">
-        <v>2</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="35">
-        <v>3</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="35">
-        <v>3</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="32">
-        <v>4</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="32">
-        <v>4</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="37">
-        <v>5</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="32">
-        <v>5</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="32">
-        <v>6</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="32">
-        <v>6</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="37">
-        <v>7</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="32">
-        <v>7</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="32">
-        <v>8</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="32">
-        <v>8</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="32">
-        <v>9</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="32">
-        <v>9</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="36">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="36">
-        <v>10</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="194" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="195"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="F32" s="28"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-      <c r="F34" s="28"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07A32F8-C0A7-416D-AD2B-DFB53846F5E3}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3503,24 +4308,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="188" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -3657,7 +4462,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="193"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89"/>
@@ -3666,7 +4471,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="193"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89"/>
@@ -3675,7 +4480,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="193"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89"/>
@@ -3684,7 +4489,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="193"/>
+      <c r="J19" s="194"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89"/>
@@ -3762,10 +4567,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="194" t="s">
+      <c r="H29" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="195"/>
+      <c r="I29" s="196"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -3829,7 +4634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CA6581-F86A-44D6-8D68-368B14D2D292}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3849,24 +4654,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -4031,7 +4836,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="193"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="156">
@@ -4046,7 +4851,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="193"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -4061,7 +4866,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="193"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -4076,7 +4881,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="193"/>
+      <c r="J19" s="194"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="128">
@@ -4188,10 +4993,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="194" t="s">
+      <c r="H29" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="195"/>
+      <c r="I29" s="196"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -4253,7 +5058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D402C37-66B5-4257-A1F7-F7996E4A697B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4273,24 +5078,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -4527,7 +5332,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="193"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -4548,7 +5353,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="193"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -4569,7 +5374,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="193"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -4588,7 +5393,7 @@
         <v>171</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="193"/>
+      <c r="J19" s="194"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -4726,10 +5531,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="194" t="s">
+      <c r="H29" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="195"/>
+      <c r="I29" s="196"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -4799,14 +5604,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51AC91-C073-48F1-A978-1644164E838A}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="D2:T36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
@@ -4819,24 +5624,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5074,7 +5879,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="193"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5095,7 +5900,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="193"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -5116,7 +5921,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="193"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -5137,7 +5942,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="193"/>
+      <c r="J19" s="194"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -5288,10 +6093,10 @@
       <c r="E29" s="132"/>
       <c r="F29" s="132"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="194" t="s">
+      <c r="H29" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="195"/>
+      <c r="I29" s="196"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="133" t="s">
@@ -5375,15 +6180,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F25AB18-3E43-4253-BC4D-F3ACD98E8098}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="D2:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5395,37 +6200,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="188" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="196" t="s">
+      <c r="D5" s="197" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="197"/>
+      <c r="E5" s="198"/>
       <c r="F5" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="196" t="s">
+      <c r="G5" s="197" t="s">
         <v>222</v>
       </c>
-      <c r="H5" s="197"/>
+      <c r="H5" s="198"/>
       <c r="I5" s="43" t="s">
         <v>224</v>
       </c>
@@ -5650,7 +6455,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="193"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5671,7 +6476,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="193"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -5692,7 +6497,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="193"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -5713,7 +6518,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="193"/>
+      <c r="J19" s="194"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -5844,7 +6649,7 @@
       <c r="G26" s="118">
         <v>21</v>
       </c>
-      <c r="H26" s="198" t="s">
+      <c r="H26" s="119" t="s">
         <v>116</v>
       </c>
       <c r="I26" s="120" t="s">
@@ -5855,7 +6660,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="12"/>
       <c r="F27" s="53"/>
-      <c r="G27" s="200">
+      <c r="G27" s="187">
         <v>22</v>
       </c>
       <c r="H27" s="157" t="s">
@@ -5870,7 +6675,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="12"/>
       <c r="F28" s="53"/>
-      <c r="G28" s="200">
+      <c r="G28" s="187">
         <v>23</v>
       </c>
       <c r="H28" s="157" t="s">
@@ -5885,7 +6690,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="12"/>
       <c r="F29" s="53"/>
-      <c r="G29" s="200">
+      <c r="G29" s="187">
         <v>24</v>
       </c>
       <c r="H29" s="157" t="s">
@@ -5900,7 +6705,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="12"/>
       <c r="F30" s="53"/>
-      <c r="G30" s="200">
+      <c r="G30" s="187">
         <v>25</v>
       </c>
       <c r="H30" s="157" t="s">
@@ -5915,7 +6720,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="12"/>
       <c r="F31" s="53"/>
-      <c r="G31" s="200">
+      <c r="G31" s="187">
         <v>26</v>
       </c>
       <c r="H31" s="157" t="s">
@@ -5930,7 +6735,7 @@
       <c r="D32" s="51"/>
       <c r="E32" s="12"/>
       <c r="F32" s="53"/>
-      <c r="G32" s="200">
+      <c r="G32" s="187">
         <v>27</v>
       </c>
       <c r="H32" s="157" t="s">
@@ -5945,7 +6750,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="12"/>
       <c r="F33" s="53"/>
-      <c r="G33" s="200">
+      <c r="G33" s="187">
         <v>28</v>
       </c>
       <c r="H33" s="157" t="s">
@@ -5963,7 +6768,7 @@
       <c r="G34" s="32">
         <v>29</v>
       </c>
-      <c r="H34" s="199"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="9"/>
       <c r="T34" s="85"/>
     </row>
@@ -5988,10 +6793,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="194" t="s">
+      <c r="H37" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="195"/>
+      <c r="I37" s="196"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -6076,7 +6881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02678EA-46E4-4A82-8844-3A8C9E213DB4}">
   <dimension ref="D2:I36"/>
   <sheetViews>
@@ -6092,24 +6897,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -6457,10 +7262,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="194" t="s">
+      <c r="H29" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="195"/>
+      <c r="I29" s="196"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -6517,7 +7322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB44D7-81E5-4063-8B60-ACF5218F804D}">
   <dimension ref="D2:I36"/>
   <sheetViews>
@@ -6533,24 +7338,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
+      <c r="D3" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
+      <c r="E3" s="189"/>
+      <c r="F3" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="189"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="191"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -6861,367 +7666,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="194" t="s">
+      <c r="H29" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="195"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="F32" s="28"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-      <c r="F34" s="28"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
-  <dimension ref="D2:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="187" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="188"/>
-      <c r="F3" s="187" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="188"/>
-    </row>
-    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="189"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="190"/>
-    </row>
-    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="68">
-        <v>1</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="34">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="35">
-        <v>3</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="32">
-        <v>4</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="32">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="32">
-        <v>6</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="32">
-        <v>7</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="32">
-        <v>8</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="32">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="36">
-        <v>10</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="72"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="72"/>
-      <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="51"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="51"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="51"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="51"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="51"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="51"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="194" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="195"/>
+      <c r="I29" s="196"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">

--- a/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\DCS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617CB6D6-B813-4A6A-923E-BA2B52995BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8248F0D-3273-4B65-AE8D-F7D80462BD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="6" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
     <sheet name="P-47" sheetId="17" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="248">
   <si>
     <t>ARC-186</t>
   </si>
@@ -720,9 +720,6 @@
     <t>SOFIA</t>
   </si>
   <si>
-    <t>F/A-14A</t>
-  </si>
-  <si>
     <t>AN/ARC-159</t>
   </si>
   <si>
@@ -748,6 +745,63 @@
   </si>
   <si>
     <t>38/156</t>
+  </si>
+  <si>
+    <t>130.8</t>
+  </si>
+  <si>
+    <t>130.9</t>
+  </si>
+  <si>
+    <t>F/A-14</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WP3</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>BULLS</t>
+  </si>
+  <si>
+    <t>LCRA</t>
+  </si>
+  <si>
+    <t>LCLK</t>
+  </si>
+  <si>
+    <t>LLRD</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>ASSAD</t>
+  </si>
+  <si>
+    <t>PALMYRA</t>
+  </si>
+  <si>
+    <t>BEIRUT</t>
   </si>
 </sst>
 </file>
@@ -834,7 +888,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +1018,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1668,6 +1728,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1677,11 +1743,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2053,7 +2127,7 @@
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D3" s="188" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="189"/>
       <c r="F3" s="188" t="s">
@@ -2072,19 +2146,19 @@
       <c r="I4" s="191"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="197" t="s">
+      <c r="D5" s="194" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="195"/>
+      <c r="F5" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="194" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="197" t="s">
+      <c r="H5" s="195"/>
+      <c r="I5" s="43" t="s">
         <v>227</v>
-      </c>
-      <c r="H5" s="198"/>
-      <c r="I5" s="43" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -2203,7 +2277,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="194"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106"/>
@@ -2212,7 +2286,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="194"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123"/>
@@ -2221,7 +2295,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="194"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123"/>
@@ -2230,7 +2304,7 @@
       <c r="G19" s="106"/>
       <c r="H19" s="107"/>
       <c r="I19" s="108"/>
-      <c r="J19" s="194"/>
+      <c r="J19" s="196"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93"/>
@@ -2381,10 +2455,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="195" t="s">
+      <c r="H37" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="196"/>
+      <c r="I37" s="198"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -2456,12 +2530,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H37:I37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2764,10 +2838,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="195" t="s">
+      <c r="H29" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="196"/>
+      <c r="I29" s="198"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -3214,10 +3288,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="195" t="s">
+      <c r="H29" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="196"/>
+      <c r="I29" s="198"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -3964,7 +4038,7 @@
       <c r="L27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="194"/>
+      <c r="M27" s="196"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="128">
@@ -3994,7 +4068,7 @@
       <c r="L28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="194"/>
+      <c r="M28" s="196"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="128">
@@ -4024,7 +4098,7 @@
       <c r="L29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="194"/>
+      <c r="M29" s="196"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="128">
@@ -4054,7 +4128,7 @@
       <c r="L30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="194"/>
+      <c r="M30" s="196"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="128">
@@ -4185,10 +4259,10 @@
       <c r="H39" s="132"/>
       <c r="I39" s="132"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="195" t="s">
+      <c r="K39" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="196"/>
+      <c r="L39" s="198"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="133" t="s">
@@ -4462,7 +4536,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="194"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89"/>
@@ -4471,7 +4545,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="194"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89"/>
@@ -4480,7 +4554,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="194"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89"/>
@@ -4489,7 +4563,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="194"/>
+      <c r="J19" s="196"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89"/>
@@ -4567,10 +4641,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="195" t="s">
+      <c r="H29" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="196"/>
+      <c r="I29" s="198"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -4836,7 +4910,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="194"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="156">
@@ -4851,7 +4925,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="194"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -4866,7 +4940,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="194"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -4881,7 +4955,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="194"/>
+      <c r="J19" s="196"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="128">
@@ -4993,10 +5067,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="195" t="s">
+      <c r="H29" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="196"/>
+      <c r="I29" s="198"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -5332,7 +5406,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="194"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5353,7 +5427,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="194"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -5374,7 +5448,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="194"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -5393,7 +5467,7 @@
         <v>171</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="194"/>
+      <c r="J19" s="196"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -5531,10 +5605,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="195" t="s">
+      <c r="H29" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="196"/>
+      <c r="I29" s="198"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -5611,8 +5685,8 @@
   </sheetPr>
   <dimension ref="D2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:F25"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5879,7 +5953,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="194"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5900,7 +5974,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="194"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -5921,7 +5995,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="194"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -5942,7 +6016,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="194"/>
+      <c r="J19" s="196"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -6093,10 +6167,10 @@
       <c r="E29" s="132"/>
       <c r="F29" s="132"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="195" t="s">
+      <c r="H29" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="196"/>
+      <c r="I29" s="198"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="133" t="s">
@@ -6187,8 +6261,8 @@
   </sheetPr>
   <dimension ref="D2:T44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6201,7 +6275,7 @@
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D3" s="188" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E3" s="189"/>
       <c r="F3" s="188" t="s">
@@ -6220,19 +6294,19 @@
       <c r="I4" s="191"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="197" t="s">
+      <c r="D5" s="194" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="195"/>
+      <c r="F5" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="194" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="43" t="s">
+      <c r="H5" s="195"/>
+      <c r="I5" s="43" t="s">
         <v>223</v>
-      </c>
-      <c r="G5" s="197" t="s">
-        <v>222</v>
-      </c>
-      <c r="H5" s="198"/>
-      <c r="I5" s="43" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
@@ -6455,7 +6529,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="194"/>
+      <c r="J16" s="196"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -6476,7 +6550,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="194"/>
+      <c r="J17" s="196"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -6497,7 +6571,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="194"/>
+      <c r="J18" s="196"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6518,7 +6592,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="194"/>
+      <c r="J19" s="196"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -6768,7 +6842,9 @@
       <c r="G34" s="32">
         <v>29</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="12" t="s">
+        <v>229</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="T34" s="85"/>
     </row>
@@ -6779,7 +6855,9 @@
       <c r="G35" s="36">
         <v>30</v>
       </c>
-      <c r="H35" s="17"/>
+      <c r="H35" s="17" t="s">
+        <v>230</v>
+      </c>
       <c r="I35" s="10"/>
       <c r="T35" s="85"/>
     </row>
@@ -6793,28 +6871,34 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="195" t="s">
+      <c r="H37" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="196"/>
+      <c r="I37" s="198"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E38" s="134"/>
       <c r="F38" s="134"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="87"/>
+      <c r="H38" s="201" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="202" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="39" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D39" s="133" t="s">
-        <v>160</v>
-      </c>
+      <c r="D39" s="133"/>
       <c r="E39" s="134"/>
       <c r="F39" s="134"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="87"/>
+      <c r="H39" s="201" t="s">
+        <v>233</v>
+      </c>
+      <c r="I39" s="202" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="40" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D40" s="140" t="s">
@@ -6825,8 +6909,12 @@
       <c r="G40" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="H40" s="86"/>
-      <c r="I40" s="87"/>
+      <c r="H40" s="201" t="s">
+        <v>234</v>
+      </c>
+      <c r="I40" s="202" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="41" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D41" s="140" t="s">
@@ -6837,8 +6925,12 @@
       <c r="G41" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="H41" s="86"/>
-      <c r="I41" s="87"/>
+      <c r="H41" s="203" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" s="204" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="42" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D42" s="140" t="s">
@@ -6849,22 +6941,39 @@
       <c r="G42" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="H42" s="86"/>
-      <c r="I42" s="87"/>
+      <c r="H42" s="203" t="s">
+        <v>236</v>
+      </c>
+      <c r="I42" s="204" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D43" s="135"/>
-      <c r="E43" s="136"/>
+      <c r="D43" s="199" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="200" t="s">
+        <v>240</v>
+      </c>
       <c r="F43" s="136"/>
-      <c r="I43" s="5"/>
+      <c r="H43" s="203" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43" s="204" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="44" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="137"/>
       <c r="E44" s="138"/>
       <c r="F44" s="138"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="139"/>
+      <c r="H44" s="205" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" s="206" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7262,10 +7371,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="195" t="s">
+      <c r="H29" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="196"/>
+      <c r="I29" s="198"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -7666,10 +7775,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="195" t="s">
+      <c r="H29" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="196"/>
+      <c r="I29" s="198"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">

--- a/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
@@ -1,42 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\DCS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8248F0D-3273-4B65-AE8D-F7D80462BD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A79DD-62B2-4075-B152-B47B8A08C3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="6" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="11280" yWindow="2835" windowWidth="43200" windowHeight="17145" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="P-47" sheetId="17" r:id="rId1"/>
-    <sheet name="AV8" sheetId="15" r:id="rId2"/>
-    <sheet name="MiG-19" sheetId="14" r:id="rId3"/>
-    <sheet name="MiG-21" sheetId="13" r:id="rId4"/>
-    <sheet name="F-16" sheetId="11" r:id="rId5"/>
-    <sheet name="FA-18C" sheetId="4" r:id="rId6"/>
-    <sheet name="FA-14A" sheetId="16" r:id="rId7"/>
-    <sheet name="Mirage F1CE" sheetId="5" r:id="rId8"/>
-    <sheet name="Mi-24" sheetId="3" r:id="rId9"/>
-    <sheet name="Ka-50" sheetId="2" r:id="rId10"/>
-    <sheet name="AH-64" sheetId="1" r:id="rId11"/>
+    <sheet name="F-15E" sheetId="18" r:id="rId1"/>
+    <sheet name="P-47" sheetId="17" r:id="rId2"/>
+    <sheet name="AV8" sheetId="15" r:id="rId3"/>
+    <sheet name="MiG-19" sheetId="14" r:id="rId4"/>
+    <sheet name="MiG-21" sheetId="13" r:id="rId5"/>
+    <sheet name="F-16" sheetId="11" r:id="rId6"/>
+    <sheet name="FA-18C" sheetId="4" r:id="rId7"/>
+    <sheet name="FA-14A" sheetId="16" r:id="rId8"/>
+    <sheet name="Mirage F1CE" sheetId="5" r:id="rId9"/>
+    <sheet name="Mi-24" sheetId="3" r:id="rId10"/>
+    <sheet name="Ka-50" sheetId="2" r:id="rId11"/>
+    <sheet name="AH-64" sheetId="1" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'AH-64'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'AV8'!$D$3:$M$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'F-16'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'FA-14A'!$D$3:$J$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'FA-18C'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'Ka-50'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Mi-24'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'MiG-19'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'MiG-21'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Mirage F1CE'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P-47'!$D$3:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'AH-64'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'AV8'!$D$3:$M$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-15E'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'F-16'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'FA-14A'!$D$3:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'FA-18C'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'Ka-50'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Mi-24'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'MiG-19'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'MiG-21'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Mirage F1CE'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'P-47'!$D$3:$J$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="250">
   <si>
     <t>ARC-186</t>
   </si>
@@ -802,6 +804,12 @@
   </si>
   <si>
     <t>BEIRUT</t>
+  </si>
+  <si>
+    <t>F-15E</t>
+  </si>
+  <si>
+    <t>30/339.97</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1710,39 +1718,6 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1757,11 +1732,137 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2107,6 +2208,1961 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC726452-1D9E-4E59-90A5-3EC471D42BCE}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="C2:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="198" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
+    </row>
+    <row r="4" spans="4:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
+    </row>
+    <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="143">
+        <v>1</v>
+      </c>
+      <c r="E6" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="145" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="88">
+        <v>1</v>
+      </c>
+      <c r="H6" s="207" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="208" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="88">
+        <v>21</v>
+      </c>
+      <c r="K6" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="145" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="146">
+        <v>2</v>
+      </c>
+      <c r="E7" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="148" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="156">
+        <v>2</v>
+      </c>
+      <c r="H7" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="158" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="89">
+        <v>22</v>
+      </c>
+      <c r="K7" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="148" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="146">
+        <v>3</v>
+      </c>
+      <c r="E8" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="148" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="156">
+        <v>3</v>
+      </c>
+      <c r="H8" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="158" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" s="89">
+        <v>23</v>
+      </c>
+      <c r="K8" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="148" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="89">
+        <v>4</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="105"/>
+      <c r="G9" s="156">
+        <v>4</v>
+      </c>
+      <c r="H9" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="158" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9" s="89">
+        <v>24</v>
+      </c>
+      <c r="K9" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="105"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="89">
+        <v>5</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="156">
+        <v>5</v>
+      </c>
+      <c r="H10" s="157" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="158" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="89">
+        <v>25</v>
+      </c>
+      <c r="K10" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="98">
+        <v>6</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="156">
+        <v>6</v>
+      </c>
+      <c r="H11" s="157" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="158" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="89">
+        <v>26</v>
+      </c>
+      <c r="K11" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="89">
+        <v>7</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="91"/>
+      <c r="G12" s="156">
+        <v>7</v>
+      </c>
+      <c r="H12" s="157" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="158" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="89">
+        <v>27</v>
+      </c>
+      <c r="K12" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" s="91"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
+        <v>8</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="156">
+        <v>8</v>
+      </c>
+      <c r="H13" s="157" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="158" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" s="89">
+        <v>28</v>
+      </c>
+      <c r="K13" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
+        <v>9</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="89">
+        <v>9</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="89">
+        <v>29</v>
+      </c>
+      <c r="K14" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
+        <v>10</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="89">
+        <v>10</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="89">
+        <v>30</v>
+      </c>
+      <c r="K15" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
+        <v>11</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="89">
+        <v>11</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="89">
+        <v>31</v>
+      </c>
+      <c r="K16" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
+        <v>12</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="89">
+        <v>12</v>
+      </c>
+      <c r="H17" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="89">
+        <v>32</v>
+      </c>
+      <c r="K17" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
+        <v>13</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="89">
+        <v>13</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="89">
+        <v>33</v>
+      </c>
+      <c r="K18" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
+        <v>14</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="89">
+        <v>14</v>
+      </c>
+      <c r="H19" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="91"/>
+      <c r="J19" s="89">
+        <v>34</v>
+      </c>
+      <c r="K19" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="127" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="115">
+        <v>15</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="89">
+        <v>15</v>
+      </c>
+      <c r="H20" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="91"/>
+      <c r="J20" s="89">
+        <v>35</v>
+      </c>
+      <c r="K20" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="115">
+        <v>16</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="89">
+        <v>16</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="91"/>
+      <c r="J21" s="89">
+        <v>36</v>
+      </c>
+      <c r="K21" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="115">
+        <v>17</v>
+      </c>
+      <c r="E22" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="89">
+        <v>17</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="91"/>
+      <c r="J22" s="89">
+        <v>37</v>
+      </c>
+      <c r="K22" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="115">
+        <v>18</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="89">
+        <v>18</v>
+      </c>
+      <c r="H23" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="91"/>
+      <c r="J23" s="89">
+        <v>38</v>
+      </c>
+      <c r="K23" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="115">
+        <v>19</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="89">
+        <v>19</v>
+      </c>
+      <c r="H24" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="91"/>
+      <c r="J24" s="89">
+        <v>39</v>
+      </c>
+      <c r="K24" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="L24" s="117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="165">
+        <v>20</v>
+      </c>
+      <c r="E25" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="167"/>
+      <c r="G25" s="186">
+        <v>20</v>
+      </c>
+      <c r="H25" s="209" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="210" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="165">
+        <v>40</v>
+      </c>
+      <c r="K25" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="167"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="52"/>
+    </row>
+    <row r="27" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+      <c r="F27" s="28"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="197"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="211"/>
+      <c r="L28" s="211"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="149" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="153"/>
+      <c r="F30" s="154"/>
+      <c r="G30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="50"/>
+      <c r="F31" s="28"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="212"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="50"/>
+      <c r="F33" s="28"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="135"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="137"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="2"/>
+      <c r="L35" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E6:F6">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:L6">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB44D7-81E5-4063-8B60-ACF5218F804D}">
+  <dimension ref="D2:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="198" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="64">
+        <v>0</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="68">
+        <v>1</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="34">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="78">
+        <v>3</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="37">
+        <v>3</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="32">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="37">
+        <v>4</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="32">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
+        <v>5</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="30">
+        <v>9</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="36">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="34">
+        <v>10</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="78">
+        <v>11</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="32">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="32">
+        <v>13</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="32">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
+        <v>15</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="32">
+        <v>16</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
+        <v>17</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="32">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="36">
+        <v>19</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
+  <dimension ref="D2:I36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="198" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="68">
+        <v>1</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="34">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="35">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="32">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="36">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="72"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="72"/>
+      <c r="I17" s="54"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="51"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="51"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="51"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="51"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
+  <dimension ref="D2:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
+    </row>
+    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="31">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="34">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="31">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="35">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="32">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="32">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="32">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="32">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="32">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="32">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="32">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="32">
+        <v>7</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="32">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="32">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="32">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="32">
+        <v>9</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="33">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="36">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="30">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="34">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="34">
+        <v>2</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="35">
+        <v>3</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="35">
+        <v>3</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="32">
+        <v>4</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="32">
+        <v>4</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="37">
+        <v>5</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="32">
+        <v>5</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="32">
+        <v>6</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="32">
+        <v>6</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="37">
+        <v>7</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="32">
+        <v>7</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="32">
+        <v>8</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="32">
+        <v>8</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="32">
+        <v>9</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="32">
+        <v>9</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="36">
+        <v>10</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="36">
+        <v>10</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="197"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="F32" s="28"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="F34" s="28"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB03D3C-8C30-43FB-9AAB-15549108B8FA}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2126,37 +4182,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="198" t="s">
         <v>224</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="194" t="s">
+      <c r="D5" s="204" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="195"/>
+      <c r="E5" s="205"/>
       <c r="F5" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="194" t="s">
+      <c r="G5" s="204" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="195"/>
+      <c r="H5" s="205"/>
       <c r="I5" s="43" t="s">
         <v>227</v>
       </c>
@@ -2277,7 +4333,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="196"/>
+      <c r="J16" s="206"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106"/>
@@ -2286,7 +4342,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="196"/>
+      <c r="J17" s="206"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123"/>
@@ -2295,7 +4351,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="196"/>
+      <c r="J18" s="206"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123"/>
@@ -2304,7 +4360,7 @@
       <c r="G19" s="106"/>
       <c r="H19" s="107"/>
       <c r="I19" s="108"/>
-      <c r="J19" s="196"/>
+      <c r="J19" s="206"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93"/>
@@ -2455,10 +4511,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="197" t="s">
+      <c r="H37" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="198"/>
+      <c r="I37" s="197"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -2530,12 +4586,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J16:J19"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="F3:I4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J16:J19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2543,814 +4599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
-  <dimension ref="D2:I36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
-    </row>
-    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
-    </row>
-    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="68">
-        <v>1</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="34">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="35">
-        <v>3</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="32">
-        <v>4</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="32">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="32">
-        <v>6</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="32">
-        <v>7</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="32">
-        <v>8</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="32">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="36">
-        <v>10</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="72"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="72"/>
-      <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="51"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="51"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="51"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="51"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="51"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="51"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="197" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="198"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="F32" s="28"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-      <c r="F34" s="28"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
-  <dimension ref="D2:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
-    </row>
-    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
-    </row>
-    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="32">
-        <v>1</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="31">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="34">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="31">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="35">
-        <v>3</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="32">
-        <v>4</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="32">
-        <v>4</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="32">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="32">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="32">
-        <v>6</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="32">
-        <v>6</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="32">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="32">
-        <v>7</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="32">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="32">
-        <v>8</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="32">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="32">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="33">
-        <v>10</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="36">
-        <v>10</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D18" s="30">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="32">
-        <v>1</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="34">
-        <v>2</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="34">
-        <v>2</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="35">
-        <v>3</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="35">
-        <v>3</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="32">
-        <v>4</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="32">
-        <v>4</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="37">
-        <v>5</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="32">
-        <v>5</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="32">
-        <v>6</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="32">
-        <v>6</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="37">
-        <v>7</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="32">
-        <v>7</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="32">
-        <v>8</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="32">
-        <v>8</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="32">
-        <v>9</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="32">
-        <v>9</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="36">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="36">
-        <v>10</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="197" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="198"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="F32" s="28"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-      <c r="F34" s="28"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365C29CA-8A91-4FD6-8610-04D4B59A757C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3374,30 +4623,30 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="189"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="199"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="191"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="201"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -4038,7 +5287,7 @@
       <c r="L27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="196"/>
+      <c r="M27" s="206"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="128">
@@ -4068,7 +5317,7 @@
       <c r="L28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="196"/>
+      <c r="M28" s="206"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="128">
@@ -4098,7 +5347,7 @@
       <c r="L29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="196"/>
+      <c r="M29" s="206"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="128">
@@ -4128,7 +5377,7 @@
       <c r="L30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="196"/>
+      <c r="M30" s="206"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="128">
@@ -4259,10 +5508,10 @@
       <c r="H39" s="132"/>
       <c r="I39" s="132"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="197" t="s">
+      <c r="K39" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="198"/>
+      <c r="L39" s="197"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="133" t="s">
@@ -4362,7 +5611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07A32F8-C0A7-416D-AD2B-DFB53846F5E3}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4382,24 +5631,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="198" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -4536,7 +5785,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="196"/>
+      <c r="J16" s="206"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89"/>
@@ -4545,7 +5794,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="196"/>
+      <c r="J17" s="206"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89"/>
@@ -4554,7 +5803,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="196"/>
+      <c r="J18" s="206"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89"/>
@@ -4563,7 +5812,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="196"/>
+      <c r="J19" s="206"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89"/>
@@ -4641,10 +5890,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="197" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="198"/>
+      <c r="I29" s="197"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -4708,7 +5957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CA6581-F86A-44D6-8D68-368B14D2D292}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4728,24 +5977,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="198" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -4910,7 +6159,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="196"/>
+      <c r="J16" s="206"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="156">
@@ -4925,7 +6174,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="196"/>
+      <c r="J17" s="206"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -4940,7 +6189,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="196"/>
+      <c r="J18" s="206"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -4955,7 +6204,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="196"/>
+      <c r="J19" s="206"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="128">
@@ -5067,10 +6316,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="197" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="198"/>
+      <c r="I29" s="197"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -5132,7 +6381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D402C37-66B5-4257-A1F7-F7996E4A697B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5152,24 +6401,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5406,7 +6655,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="196"/>
+      <c r="J16" s="206"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5427,7 +6676,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="196"/>
+      <c r="J17" s="206"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -5448,7 +6697,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="196"/>
+      <c r="J18" s="206"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -5467,7 +6716,7 @@
         <v>171</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="196"/>
+      <c r="J19" s="206"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -5605,10 +6854,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="197" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="198"/>
+      <c r="I29" s="197"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -5678,7 +6927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51AC91-C073-48F1-A978-1644164E838A}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5698,24 +6947,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5953,7 +7202,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="196"/>
+      <c r="J16" s="206"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5974,7 +7223,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="196"/>
+      <c r="J17" s="206"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -5995,7 +7244,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="196"/>
+      <c r="J18" s="206"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6016,7 +7265,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="196"/>
+      <c r="J19" s="206"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -6167,10 +7416,10 @@
       <c r="E29" s="132"/>
       <c r="F29" s="132"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="197" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="198"/>
+      <c r="I29" s="197"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="133" t="s">
@@ -6254,14 +7503,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F25AB18-3E43-4253-BC4D-F3ACD98E8098}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="D2:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
@@ -6274,37 +7523,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="198" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="194" t="s">
+      <c r="D5" s="204" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="195"/>
+      <c r="E5" s="205"/>
       <c r="F5" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="194" t="s">
+      <c r="G5" s="204" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="195"/>
+      <c r="H5" s="205"/>
       <c r="I5" s="43" t="s">
         <v>223</v>
       </c>
@@ -6529,7 +7778,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="196"/>
+      <c r="J16" s="206"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -6550,7 +7799,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="196"/>
+      <c r="J17" s="206"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -6571,7 +7820,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="196"/>
+      <c r="J18" s="206"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6592,7 +7841,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="196"/>
+      <c r="J19" s="206"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -6871,10 +8120,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="197" t="s">
+      <c r="H37" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="198"/>
+      <c r="I37" s="197"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -6882,10 +8131,10 @@
       </c>
       <c r="E38" s="134"/>
       <c r="F38" s="134"/>
-      <c r="H38" s="201" t="s">
+      <c r="H38" s="190" t="s">
         <v>232</v>
       </c>
-      <c r="I38" s="202" t="s">
+      <c r="I38" s="191" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6893,10 +8142,10 @@
       <c r="D39" s="133"/>
       <c r="E39" s="134"/>
       <c r="F39" s="134"/>
-      <c r="H39" s="201" t="s">
+      <c r="H39" s="190" t="s">
         <v>233</v>
       </c>
-      <c r="I39" s="202" t="s">
+      <c r="I39" s="191" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6909,10 +8158,10 @@
       <c r="G40" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="H40" s="201" t="s">
+      <c r="H40" s="190" t="s">
         <v>234</v>
       </c>
-      <c r="I40" s="202" t="s">
+      <c r="I40" s="191" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6925,10 +8174,10 @@
       <c r="G41" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="H41" s="203" t="s">
+      <c r="H41" s="192" t="s">
         <v>235</v>
       </c>
-      <c r="I41" s="204" t="s">
+      <c r="I41" s="193" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6941,25 +8190,25 @@
       <c r="G42" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="H42" s="203" t="s">
+      <c r="H42" s="192" t="s">
         <v>236</v>
       </c>
-      <c r="I42" s="204" t="s">
+      <c r="I42" s="193" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D43" s="199" t="s">
+      <c r="D43" s="188" t="s">
         <v>239</v>
       </c>
-      <c r="E43" s="200" t="s">
+      <c r="E43" s="189" t="s">
         <v>240</v>
       </c>
       <c r="F43" s="136"/>
-      <c r="H43" s="203" t="s">
+      <c r="H43" s="192" t="s">
         <v>237</v>
       </c>
-      <c r="I43" s="204" t="s">
+      <c r="I43" s="193" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6968,10 +8217,10 @@
       <c r="E44" s="138"/>
       <c r="F44" s="138"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="205" t="s">
+      <c r="H44" s="194" t="s">
         <v>238</v>
       </c>
-      <c r="I44" s="206" t="s">
+      <c r="I44" s="195" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6990,7 +8239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02678EA-46E4-4A82-8844-3A8C9E213DB4}">
   <dimension ref="D2:I36"/>
   <sheetViews>
@@ -7006,24 +8255,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="198" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
+      <c r="E3" s="199"/>
+      <c r="F3" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="201"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -7371,10 +8620,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="197" t="s">
+      <c r="H29" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="198"/>
+      <c r="I29" s="197"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -7399,412 +8648,6 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
-      <c r="F33" s="28"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="2"/>
-      <c r="F34" s="28"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB44D7-81E5-4063-8B60-ACF5218F804D}">
-  <dimension ref="D2:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="188" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="188" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="189"/>
-    </row>
-    <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="190"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="191"/>
-    </row>
-    <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="64">
-        <v>0</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="68">
-        <v>1</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="31">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="34">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="31">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="78">
-        <v>3</v>
-      </c>
-      <c r="H8" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="37">
-        <v>3</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="32">
-        <v>4</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="37">
-        <v>4</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="32">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="32">
-        <v>5</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="32">
-        <v>6</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="32">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="32">
-        <v>7</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="32">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="32">
-        <v>8</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="32">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="32">
-        <v>9</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="30">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="36">
-        <v>10</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="34">
-        <v>10</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="78">
-        <v>11</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="32">
-        <v>12</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="32">
-        <v>13</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="52"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="32">
-        <v>14</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="52"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="32">
-        <v>15</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="52"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="32">
-        <v>16</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="32">
-        <v>17</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="52"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="32">
-        <v>18</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="36">
-        <v>19</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="51"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="51"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="197" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="198"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="F32" s="28"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="50" t="s">
-        <v>66</v>
-      </c>
       <c r="F33" s="28"/>
       <c r="I33" s="5"/>
     </row>

--- a/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/Base/Kneeboards/presets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A79DD-62B2-4075-B152-B47B8A08C3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D735730-C18A-4C6D-9F3D-7C281353C080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="2835" windowWidth="43200" windowHeight="17145" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
     <sheet name="F-15E" sheetId="18" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1732,117 +1732,59 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1913,9 +1855,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1953,7 +1895,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2059,7 +2001,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2201,7 +2143,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2227,24 +2169,24 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>248</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -2282,10 +2224,10 @@
       <c r="G6" s="88">
         <v>1</v>
       </c>
-      <c r="H6" s="207" t="s">
+      <c r="H6" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="208" t="s">
+      <c r="I6" s="197" t="s">
         <v>92</v>
       </c>
       <c r="J6" s="88">
@@ -2811,10 +2753,10 @@
       <c r="G25" s="186">
         <v>20</v>
       </c>
-      <c r="H25" s="209" t="s">
+      <c r="H25" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="210" t="s">
+      <c r="I25" s="199" t="s">
         <v>132</v>
       </c>
       <c r="J25" s="165">
@@ -2848,13 +2790,13 @@
       <c r="E28" s="150"/>
       <c r="F28" s="150"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="196" t="s">
+      <c r="H28" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="197"/>
+      <c r="I28" s="207"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="149" t="s">
@@ -2893,11 +2835,9 @@
       <c r="L31" s="86"/>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="212"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="215"/>
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="87"/>
       <c r="J32" s="2"/>
       <c r="K32" s="86"/>
@@ -2965,24 +2905,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -3293,10 +3233,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -3371,24 +3311,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -3650,10 +3590,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -3728,24 +3668,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -4100,10 +4040,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -4182,37 +4122,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>224</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="205"/>
+      <c r="E5" s="211"/>
       <c r="F5" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="204" t="s">
+      <c r="G5" s="210" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="205"/>
+      <c r="H5" s="211"/>
       <c r="I5" s="43" t="s">
         <v>227</v>
       </c>
@@ -4333,7 +4273,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106"/>
@@ -4342,7 +4282,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123"/>
@@ -4351,7 +4291,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123"/>
@@ -4360,7 +4300,7 @@
       <c r="G19" s="106"/>
       <c r="H19" s="107"/>
       <c r="I19" s="108"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93"/>
@@ -4511,10 +4451,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="196" t="s">
+      <c r="H37" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="197"/>
+      <c r="I37" s="207"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -4623,30 +4563,30 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="201"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="203"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5287,7 +5227,7 @@
       <c r="L27" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="206"/>
+      <c r="M27" s="209"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="128">
@@ -5317,7 +5257,7 @@
       <c r="L28" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="206"/>
+      <c r="M28" s="209"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="128">
@@ -5347,7 +5287,7 @@
       <c r="L29" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="206"/>
+      <c r="M29" s="209"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="128">
@@ -5377,7 +5317,7 @@
       <c r="L30" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="206"/>
+      <c r="M30" s="209"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="128">
@@ -5508,10 +5448,10 @@
       <c r="H39" s="132"/>
       <c r="I39" s="132"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="196" t="s">
+      <c r="K39" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="197"/>
+      <c r="L39" s="207"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="133" t="s">
@@ -5631,24 +5571,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -5785,7 +5725,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89"/>
@@ -5794,7 +5734,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89"/>
@@ -5803,7 +5743,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89"/>
@@ -5812,7 +5752,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89"/>
@@ -5890,10 +5830,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -5977,24 +5917,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -6159,7 +6099,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="156">
@@ -6174,7 +6114,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -6189,7 +6129,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6204,7 +6144,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="128">
@@ -6316,10 +6256,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -6401,24 +6341,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -6655,7 +6595,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -6676,7 +6616,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -6697,7 +6637,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6716,7 +6656,7 @@
         <v>171</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -6854,10 +6794,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -6947,24 +6887,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -7202,7 +7142,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -7223,7 +7163,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -7244,7 +7184,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -7265,7 +7205,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -7416,10 +7356,10 @@
       <c r="E29" s="132"/>
       <c r="F29" s="132"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="133" t="s">
@@ -7523,37 +7463,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="205"/>
+      <c r="E5" s="211"/>
       <c r="F5" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="204" t="s">
+      <c r="G5" s="210" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="205"/>
+      <c r="H5" s="211"/>
       <c r="I5" s="43" t="s">
         <v>223</v>
       </c>
@@ -7778,7 +7718,7 @@
       <c r="I16" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="206"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -7799,7 +7739,7 @@
       <c r="I17" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="206"/>
+      <c r="J17" s="209"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -7820,7 +7760,7 @@
       <c r="I18" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="206"/>
+      <c r="J18" s="209"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -7841,7 +7781,7 @@
       <c r="I19" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="206"/>
+      <c r="J19" s="209"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -8120,10 +8060,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="196" t="s">
+      <c r="H37" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="197"/>
+      <c r="I37" s="207"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -8255,24 +8195,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="201"/>
+      <c r="F3" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="201"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -8620,10 +8560,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="206" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
